--- a/memristordata/conductance_hu.xlsx
+++ b/memristordata/conductance_hu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repository\mem-brain-bindsnet\memristordata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02DF8B4-B956-473B-BBB0-1793D5990371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC8F519-6601-4E29-8707-D437436582D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -367,20 +367,20 @@
   <dimension ref="A1:F1240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="A1:XFD1048576"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.9140625" style="1"/>
+    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.9140625" style="1"/>
+    <col min="5" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -393,7 +393,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -406,7 +406,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -419,7 +419,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -432,7 +432,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -445,7 +445,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -458,7 +458,7 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -471,7 +471,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -497,7 +497,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -510,7 +510,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -523,7 +523,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -549,7 +549,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -575,7 +575,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -588,7 +588,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -627,7 +627,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>3</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>3</v>
       </c>
@@ -679,7 +679,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
@@ -692,7 +692,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -731,7 +731,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -757,7 +757,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3</v>
       </c>
@@ -783,7 +783,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
@@ -796,7 +796,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -809,7 +809,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -861,7 +861,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3</v>
       </c>
@@ -874,7 +874,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -887,7 +887,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -900,7 +900,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -926,7 +926,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -965,7 +965,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1004,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -1017,7 +1017,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3</v>
       </c>
@@ -1030,7 +1030,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -1043,7 +1043,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3</v>
       </c>
@@ -1056,7 +1056,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>3</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>3</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>3</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>3</v>
       </c>
@@ -1134,7 +1134,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>3</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>3</v>
       </c>
@@ -1160,7 +1160,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -1173,7 +1173,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>3</v>
       </c>
@@ -1186,7 +1186,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>3</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>3</v>
       </c>
@@ -1212,7 +1212,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -1225,7 +1225,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>3</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>3</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>3</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>3</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>3</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>3</v>
       </c>
@@ -1381,7 +1381,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>3</v>
       </c>
@@ -1394,7 +1394,7 @@
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>3</v>
       </c>
@@ -1407,7 +1407,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>3</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>3</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>3</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>3</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>3</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>3</v>
       </c>
@@ -1511,7 +1511,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>3</v>
       </c>
@@ -1524,7 +1524,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>3</v>
       </c>
@@ -1537,7 +1537,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>3</v>
       </c>
@@ -1563,7 +1563,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>3</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>3</v>
       </c>
@@ -1589,7 +1589,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>3</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>3</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>3</v>
       </c>
@@ -1628,7 +1628,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>3</v>
       </c>
@@ -1641,7 +1641,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -1654,7 +1654,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>3</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>3</v>
       </c>
@@ -1680,7 +1680,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>3</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>3</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>3</v>
       </c>
@@ -1719,7 +1719,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>3</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>3</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>3</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>3</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>3</v>
       </c>
@@ -1784,7 +1784,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>3</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>3</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>3</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>3</v>
       </c>
@@ -1849,7 +1849,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>3</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>3</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>3</v>
       </c>
@@ -1888,7 +1888,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>3</v>
       </c>
@@ -1901,7 +1901,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>3</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>3</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>3</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>3</v>
       </c>
@@ -1953,7 +1953,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>3</v>
       </c>
@@ -1966,7 +1966,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>3</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>3</v>
       </c>
@@ -1992,7 +1992,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>3</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>3</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>3</v>
       </c>
@@ -2031,7 +2031,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>3</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>3</v>
       </c>
@@ -2057,7 +2057,7 @@
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>3</v>
       </c>
@@ -2070,7 +2070,7 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>3</v>
       </c>
@@ -2083,7 +2083,7 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>3</v>
       </c>
@@ -2096,7 +2096,7 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>3</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>3</v>
       </c>
@@ -2122,7 +2122,7 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>3</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>3</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>3</v>
       </c>
@@ -2161,7 +2161,7 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>3</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>3</v>
       </c>
@@ -2187,7 +2187,7 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>3</v>
       </c>
@@ -2200,7 +2200,7 @@
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>3</v>
       </c>
@@ -2252,7 +2252,7 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>3</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>3</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>3</v>
       </c>
@@ -2304,7 +2304,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>3</v>
       </c>
@@ -2317,7 +2317,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>3</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>3</v>
       </c>
@@ -2343,7 +2343,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>3</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>3</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>3</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>3</v>
       </c>
@@ -2395,7 +2395,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>3</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>3</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>3</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>3</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>3</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>3</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>3</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>3</v>
       </c>
@@ -2499,7 +2499,7 @@
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>3</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>3</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>3</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>3</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>3</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>3</v>
       </c>
@@ -2577,7 +2577,7 @@
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>3</v>
       </c>
@@ -2590,7 +2590,7 @@
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>3</v>
       </c>
@@ -2603,7 +2603,7 @@
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>3</v>
       </c>
@@ -2616,7 +2616,7 @@
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>3</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>3</v>
       </c>
@@ -2642,7 +2642,7 @@
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>3</v>
       </c>
@@ -2655,7 +2655,7 @@
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>3</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>3</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>3</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>3</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>3</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>3</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>3</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>3</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>3</v>
       </c>
@@ -2785,7 +2785,7 @@
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>3</v>
       </c>
@@ -2798,7 +2798,7 @@
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>3</v>
       </c>
@@ -2811,7 +2811,7 @@
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>3</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>3</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>3</v>
       </c>
@@ -2850,7 +2850,7 @@
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>3</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>3</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>3</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>3</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>3</v>
       </c>
@@ -2915,7 +2915,7 @@
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>3</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>3</v>
       </c>
@@ -2941,7 +2941,7 @@
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>3</v>
       </c>
@@ -2954,7 +2954,7 @@
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>3</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>3</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>3</v>
       </c>
@@ -2993,7 +2993,7 @@
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>3</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>3</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>3</v>
       </c>
@@ -3032,7 +3032,7 @@
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>3</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>3</v>
       </c>
@@ -3058,7 +3058,7 @@
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>3</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>3</v>
       </c>
@@ -3084,7 +3084,7 @@
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>3</v>
       </c>
@@ -3097,7 +3097,7 @@
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>3</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>3</v>
       </c>
@@ -3136,7 +3136,7 @@
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>3</v>
       </c>
@@ -3149,7 +3149,7 @@
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>3</v>
       </c>
@@ -3162,7 +3162,7 @@
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>3</v>
       </c>
@@ -3188,7 +3188,7 @@
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>3</v>
       </c>
@@ -3201,7 +3201,7 @@
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>3</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>3</v>
       </c>
@@ -3227,7 +3227,7 @@
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>3</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>3</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>3</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>3</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>3</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>3</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>3</v>
       </c>
@@ -3318,7 +3318,7 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>3</v>
       </c>
@@ -3331,7 +3331,7 @@
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>3</v>
       </c>
@@ -3344,7 +3344,7 @@
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>3</v>
       </c>
@@ -3357,7 +3357,7 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>3</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>3</v>
       </c>
@@ -3383,7 +3383,7 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>3</v>
       </c>
@@ -3396,7 +3396,7 @@
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>3</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>3</v>
       </c>
@@ -3422,7 +3422,7 @@
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>3</v>
       </c>
@@ -3435,7 +3435,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>3</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>3</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>3</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>3</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>3</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>3</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>3</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>3</v>
       </c>
@@ -3539,7 +3539,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>3</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>3</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>3</v>
       </c>
@@ -3578,7 +3578,7 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>3</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>3</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>3</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>3</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>3</v>
       </c>
@@ -3643,7 +3643,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>3</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>3</v>
       </c>
@@ -3669,7 +3669,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>3</v>
       </c>
@@ -3682,7 +3682,7 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>3</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>3</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>3</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>3</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>3</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>3</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>3</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>3</v>
       </c>
@@ -3786,7 +3786,7 @@
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>3</v>
       </c>
@@ -3799,7 +3799,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>3</v>
       </c>
@@ -3812,7 +3812,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>3</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>3</v>
       </c>
@@ -3838,7 +3838,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>3</v>
       </c>
@@ -3851,7 +3851,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>3</v>
       </c>
@@ -3864,7 +3864,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>3</v>
       </c>
@@ -3877,7 +3877,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>3</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>3</v>
       </c>
@@ -3903,7 +3903,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>3</v>
       </c>
@@ -3916,7 +3916,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>3</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>3</v>
       </c>
@@ -3942,7 +3942,7 @@
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>3</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>3</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>3</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>3</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>3</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>3</v>
       </c>
@@ -4020,7 +4020,7 @@
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>3</v>
       </c>
@@ -4033,7 +4033,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>3</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>3</v>
       </c>
@@ -4059,7 +4059,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>3</v>
       </c>
@@ -4072,7 +4072,7 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>3</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>3</v>
       </c>
@@ -4098,7 +4098,7 @@
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>3</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>3</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>3</v>
       </c>
@@ -4137,7 +4137,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>3</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>3</v>
       </c>
@@ -4163,7 +4163,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>3</v>
       </c>
@@ -4176,7 +4176,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>3</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>3</v>
       </c>
@@ -4202,7 +4202,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>3</v>
       </c>
@@ -4215,7 +4215,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>3</v>
       </c>
@@ -4228,7 +4228,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>3</v>
       </c>
@@ -4241,7 +4241,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>3</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>3</v>
       </c>
@@ -4267,7 +4267,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>3</v>
       </c>
@@ -4280,7 +4280,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>3</v>
       </c>
@@ -4293,7 +4293,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>3</v>
       </c>
@@ -4306,7 +4306,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>3</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>3</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>3</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>3</v>
       </c>
@@ -4358,7 +4358,7 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>3</v>
       </c>
@@ -4371,7 +4371,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>3</v>
       </c>
@@ -4384,7 +4384,7 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>3</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>3</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>3</v>
       </c>
@@ -4423,7 +4423,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>3</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>3</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>3</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>3</v>
       </c>
@@ -4475,7 +4475,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>3</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>3</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>3</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>3</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>3</v>
       </c>
@@ -4540,7 +4540,7 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>3</v>
       </c>
@@ -4553,7 +4553,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>3</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>3</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>3</v>
       </c>
@@ -4592,7 +4592,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>3</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>3</v>
       </c>
@@ -4618,7 +4618,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>3</v>
       </c>
@@ -4631,7 +4631,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>3</v>
       </c>
@@ -4644,7 +4644,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>3</v>
       </c>
@@ -4657,7 +4657,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>3</v>
       </c>
@@ -4670,7 +4670,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>3</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>3</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>3</v>
       </c>
@@ -4709,7 +4709,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>3</v>
       </c>
@@ -4722,7 +4722,7 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>3</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>3</v>
       </c>
@@ -4748,7 +4748,7 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>3</v>
       </c>
@@ -4761,7 +4761,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>3</v>
       </c>
@@ -4774,7 +4774,7 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>3</v>
       </c>
@@ -4787,7 +4787,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>3</v>
       </c>
@@ -4800,7 +4800,7 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>3</v>
       </c>
@@ -4813,7 +4813,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>3</v>
       </c>
@@ -4826,7 +4826,7 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>3</v>
       </c>
@@ -4839,7 +4839,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>3</v>
       </c>
@@ -4852,7 +4852,7 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>3</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>3</v>
       </c>
@@ -4878,7 +4878,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>3</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>3</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>3</v>
       </c>
@@ -4917,7 +4917,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>3</v>
       </c>
@@ -4930,7 +4930,7 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>3</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>3</v>
       </c>
@@ -4956,7 +4956,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>3</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>3</v>
       </c>
@@ -4982,7 +4982,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>3</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>3</v>
       </c>
@@ -5008,7 +5008,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>3</v>
       </c>
@@ -5021,7 +5021,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>3</v>
       </c>
@@ -5034,7 +5034,7 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>3</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>3</v>
       </c>
@@ -5060,7 +5060,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>3</v>
       </c>
@@ -5073,7 +5073,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>3</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>3</v>
       </c>
@@ -5099,7 +5099,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>3</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>3</v>
       </c>
@@ -5125,7 +5125,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>3</v>
       </c>
@@ -5138,7 +5138,7 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>3</v>
       </c>
@@ -5151,7 +5151,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>3</v>
       </c>
@@ -5164,7 +5164,7 @@
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>3</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>3</v>
       </c>
@@ -5190,7 +5190,7 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>3</v>
       </c>
@@ -5203,7 +5203,7 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>3</v>
       </c>
@@ -5216,7 +5216,7 @@
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>3</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>3</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>3</v>
       </c>
@@ -5255,7 +5255,7 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>3</v>
       </c>
@@ -5268,7 +5268,7 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>3</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>3</v>
       </c>
@@ -5294,7 +5294,7 @@
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>3</v>
       </c>
@@ -5307,7 +5307,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>3</v>
       </c>
@@ -5320,7 +5320,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>3</v>
       </c>
@@ -5333,7 +5333,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>3</v>
       </c>
@@ -5346,7 +5346,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>3</v>
       </c>
@@ -5359,7 +5359,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>3</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>3</v>
       </c>
@@ -5385,7 +5385,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>3</v>
       </c>
@@ -5398,7 +5398,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>3</v>
       </c>
@@ -5411,7 +5411,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>3</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>3</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>3</v>
       </c>
@@ -5450,7 +5450,7 @@
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>3</v>
       </c>
@@ -5463,7 +5463,7 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>3</v>
       </c>
@@ -5476,7 +5476,7 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>3</v>
       </c>
@@ -5489,7 +5489,7 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>3</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>3</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>3</v>
       </c>
@@ -5528,7 +5528,7 @@
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>3</v>
       </c>
@@ -5541,7 +5541,7 @@
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>3</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>3</v>
       </c>
@@ -5567,7 +5567,7 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>3</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>3</v>
       </c>
@@ -5593,7 +5593,7 @@
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>3</v>
       </c>
@@ -5606,7 +5606,7 @@
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>3</v>
       </c>
@@ -5619,7 +5619,7 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>3</v>
       </c>
@@ -5632,7 +5632,7 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>3</v>
       </c>
@@ -5645,7 +5645,7 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>3</v>
       </c>
@@ -5658,7 +5658,7 @@
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>3</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>3</v>
       </c>
@@ -5684,7 +5684,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>3</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>3</v>
       </c>
@@ -5710,7 +5710,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>3</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>3</v>
       </c>
@@ -5736,7 +5736,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>3</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>3</v>
       </c>
@@ -5762,7 +5762,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>3</v>
       </c>
@@ -5775,7 +5775,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>3</v>
       </c>
@@ -5788,7 +5788,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>3</v>
       </c>
@@ -5801,7 +5801,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>3</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>3</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>3</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>3</v>
       </c>
@@ -5853,7 +5853,7 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>3</v>
       </c>
@@ -5866,7 +5866,7 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>3</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>3</v>
       </c>
@@ -5892,7 +5892,7 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>3</v>
       </c>
@@ -5905,7 +5905,7 @@
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>3</v>
       </c>
@@ -5918,7 +5918,7 @@
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>3</v>
       </c>
@@ -5931,7 +5931,7 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>3</v>
       </c>
@@ -5944,7 +5944,7 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>3</v>
       </c>
@@ -5957,7 +5957,7 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>3</v>
       </c>
@@ -5970,7 +5970,7 @@
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>3</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>3</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>3</v>
       </c>
@@ -6009,7 +6009,7 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>3</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>3</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>3</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>3</v>
       </c>
@@ -6061,7 +6061,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>3</v>
       </c>
@@ -6074,7 +6074,7 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>3</v>
       </c>
@@ -6087,7 +6087,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>3</v>
       </c>
@@ -6100,7 +6100,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>3</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>3</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>3</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>3</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>3</v>
       </c>
@@ -6165,7 +6165,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>3</v>
       </c>
@@ -6178,7 +6178,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>3</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>3</v>
       </c>
@@ -6204,7 +6204,7 @@
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>3</v>
       </c>
@@ -6217,7 +6217,7 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>3</v>
       </c>
@@ -6230,7 +6230,7 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>3</v>
       </c>
@@ -6243,7 +6243,7 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>3</v>
       </c>
@@ -6256,7 +6256,7 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>3</v>
       </c>
@@ -6269,7 +6269,7 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>3</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>3</v>
       </c>
@@ -6295,7 +6295,7 @@
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>3</v>
       </c>
@@ -6308,7 +6308,7 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>3</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>3</v>
       </c>
@@ -6334,7 +6334,7 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>3</v>
       </c>
@@ -6347,7 +6347,7 @@
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>3</v>
       </c>
@@ -6360,7 +6360,7 @@
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>3</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>3</v>
       </c>
@@ -6386,7 +6386,7 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>3</v>
       </c>
@@ -6399,7 +6399,7 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>3</v>
       </c>
@@ -6412,7 +6412,7 @@
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>3</v>
       </c>
@@ -6425,7 +6425,7 @@
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>3</v>
       </c>
@@ -6438,7 +6438,7 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>3</v>
       </c>
@@ -6451,7 +6451,7 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>3</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>3</v>
       </c>
@@ -6477,7 +6477,7 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>3</v>
       </c>
@@ -6490,7 +6490,7 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>3</v>
       </c>
@@ -6503,7 +6503,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>3</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>3</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>3</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>3</v>
       </c>
@@ -6555,7 +6555,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>3</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>3</v>
       </c>
@@ -6581,7 +6581,7 @@
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>3</v>
       </c>
@@ -6594,7 +6594,7 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>3</v>
       </c>
@@ -6607,7 +6607,7 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>3</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>3</v>
       </c>
@@ -6633,7 +6633,7 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>3</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>3</v>
       </c>
@@ -6659,7 +6659,7 @@
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>3</v>
       </c>
@@ -6672,7 +6672,7 @@
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>3</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>3</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>3</v>
       </c>
@@ -6711,7 +6711,7 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>3</v>
       </c>
@@ -6724,7 +6724,7 @@
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>3</v>
       </c>
@@ -6737,7 +6737,7 @@
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>3</v>
       </c>
@@ -6750,7 +6750,7 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>3</v>
       </c>
@@ -6763,7 +6763,7 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>3</v>
       </c>
@@ -6776,7 +6776,7 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>3</v>
       </c>
@@ -6789,7 +6789,7 @@
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>3</v>
       </c>
@@ -6802,7 +6802,7 @@
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>3</v>
       </c>
@@ -6815,7 +6815,7 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>3</v>
       </c>
@@ -6828,7 +6828,7 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>3</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>3</v>
       </c>
@@ -6854,7 +6854,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>3</v>
       </c>
@@ -6867,7 +6867,7 @@
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>3</v>
       </c>
@@ -6880,7 +6880,7 @@
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>-3</v>
       </c>
@@ -6893,7 +6893,7 @@
       <c r="E501" s="2"/>
       <c r="F501" s="3"/>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>-3</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="E502" s="2"/>
       <c r="F502" s="3"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>-3</v>
       </c>
@@ -6919,7 +6919,7 @@
       <c r="E503" s="2"/>
       <c r="F503" s="3"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>-3</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="3"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>-3</v>
       </c>
@@ -6945,7 +6945,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="3"/>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>-3</v>
       </c>
@@ -6958,7 +6958,7 @@
       <c r="E506" s="2"/>
       <c r="F506" s="3"/>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>-3</v>
       </c>
@@ -6971,7 +6971,7 @@
       <c r="E507" s="2"/>
       <c r="F507" s="3"/>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>-3</v>
       </c>
@@ -6984,7 +6984,7 @@
       <c r="E508" s="2"/>
       <c r="F508" s="3"/>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>-3</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="E509" s="2"/>
       <c r="F509" s="3"/>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>-3</v>
       </c>
@@ -7010,7 +7010,7 @@
       <c r="E510" s="2"/>
       <c r="F510" s="3"/>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>-3</v>
       </c>
@@ -7023,7 +7023,7 @@
       <c r="E511" s="2"/>
       <c r="F511" s="3"/>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>-3</v>
       </c>
@@ -7036,7 +7036,7 @@
       <c r="E512" s="2"/>
       <c r="F512" s="3"/>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>-3</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="E513" s="2"/>
       <c r="F513" s="3"/>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>-3</v>
       </c>
@@ -7062,7 +7062,7 @@
       <c r="E514" s="2"/>
       <c r="F514" s="3"/>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>-3</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="E515" s="2"/>
       <c r="F515" s="3"/>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>-3</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="E516" s="2"/>
       <c r="F516" s="3"/>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>-3</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="E517" s="2"/>
       <c r="F517" s="3"/>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>-3</v>
       </c>
@@ -7114,7 +7114,7 @@
       <c r="E518" s="2"/>
       <c r="F518" s="3"/>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>-3</v>
       </c>
@@ -7127,7 +7127,7 @@
       <c r="E519" s="2"/>
       <c r="F519" s="3"/>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>-3</v>
       </c>
@@ -7140,7 +7140,7 @@
       <c r="E520" s="2"/>
       <c r="F520" s="3"/>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>-3</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="E521" s="2"/>
       <c r="F521" s="3"/>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A522" s="1">
         <v>-3</v>
       </c>
@@ -7166,7 +7166,7 @@
       <c r="E522" s="2"/>
       <c r="F522" s="3"/>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A523" s="1">
         <v>-3</v>
       </c>
@@ -7179,7 +7179,7 @@
       <c r="E523" s="2"/>
       <c r="F523" s="3"/>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A524" s="1">
         <v>-3</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="E524" s="2"/>
       <c r="F524" s="3"/>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A525" s="1">
         <v>-3</v>
       </c>
@@ -7205,7 +7205,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="3"/>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A526" s="1">
         <v>-3</v>
       </c>
@@ -7218,7 +7218,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="3"/>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A527" s="1">
         <v>-3</v>
       </c>
@@ -7231,7 +7231,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="3"/>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A528" s="1">
         <v>-3</v>
       </c>
@@ -7244,7 +7244,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="3"/>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A529" s="1">
         <v>-3</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="3"/>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A530" s="1">
         <v>-3</v>
       </c>
@@ -7270,7 +7270,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="3"/>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A531" s="1">
         <v>-3</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="3"/>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A532" s="1">
         <v>-3</v>
       </c>
@@ -7296,7 +7296,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="3"/>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A533" s="1">
         <v>-3</v>
       </c>
@@ -7309,7 +7309,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A534" s="1">
         <v>-3</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="E534" s="2"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A535" s="1">
         <v>-3</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="E535" s="2"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A536" s="1">
         <v>-3</v>
       </c>
@@ -7348,7 +7348,7 @@
       <c r="E536" s="2"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A537" s="1">
         <v>-3</v>
       </c>
@@ -7361,7 +7361,7 @@
       <c r="E537" s="2"/>
       <c r="F537" s="3"/>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A538" s="1">
         <v>-3</v>
       </c>
@@ -7374,7 +7374,7 @@
       <c r="E538" s="2"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A539" s="1">
         <v>-3</v>
       </c>
@@ -7387,7 +7387,7 @@
       <c r="E539" s="2"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A540" s="1">
         <v>-3</v>
       </c>
@@ -7400,7 +7400,7 @@
       <c r="E540" s="2"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A541" s="1">
         <v>-3</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="E541" s="2"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A542" s="1">
         <v>-3</v>
       </c>
@@ -7426,7 +7426,7 @@
       <c r="E542" s="2"/>
       <c r="F542" s="3"/>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A543" s="1">
         <v>-3</v>
       </c>
@@ -7439,7 +7439,7 @@
       <c r="E543" s="2"/>
       <c r="F543" s="3"/>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A544" s="1">
         <v>-3</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="E544" s="2"/>
       <c r="F544" s="3"/>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>-3</v>
       </c>
@@ -7465,7 +7465,7 @@
       <c r="E545" s="2"/>
       <c r="F545" s="3"/>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>-3</v>
       </c>
@@ -7478,7 +7478,7 @@
       <c r="E546" s="2"/>
       <c r="F546" s="3"/>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>-3</v>
       </c>
@@ -7491,7 +7491,7 @@
       <c r="E547" s="2"/>
       <c r="F547" s="3"/>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>-3</v>
       </c>
@@ -7504,7 +7504,7 @@
       <c r="E548" s="2"/>
       <c r="F548" s="3"/>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>-3</v>
       </c>
@@ -7517,7 +7517,7 @@
       <c r="E549" s="2"/>
       <c r="F549" s="3"/>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>-3</v>
       </c>
@@ -7530,7 +7530,7 @@
       <c r="E550" s="2"/>
       <c r="F550" s="3"/>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>-3</v>
       </c>
@@ -7543,7 +7543,7 @@
       <c r="E551" s="2"/>
       <c r="F551" s="3"/>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>-3</v>
       </c>
@@ -7556,7 +7556,7 @@
       <c r="E552" s="2"/>
       <c r="F552" s="3"/>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>-3</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="3"/>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>-3</v>
       </c>
@@ -7582,7 +7582,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="3"/>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>-3</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="3"/>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>-3</v>
       </c>
@@ -7608,7 +7608,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="3"/>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>-3</v>
       </c>
@@ -7621,7 +7621,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="3"/>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>-3</v>
       </c>
@@ -7634,7 +7634,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="3"/>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>-3</v>
       </c>
@@ -7647,7 +7647,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="3"/>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>-3</v>
       </c>
@@ -7660,7 +7660,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="3"/>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A561" s="1">
         <v>-3</v>
       </c>
@@ -7673,7 +7673,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A562" s="1">
         <v>-3</v>
       </c>
@@ -7686,7 +7686,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A563" s="1">
         <v>-3</v>
       </c>
@@ -7699,7 +7699,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="3"/>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A564" s="1">
         <v>-3</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="E564" s="2"/>
       <c r="F564" s="3"/>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A565" s="1">
         <v>-3</v>
       </c>
@@ -7725,7 +7725,7 @@
       <c r="E565" s="2"/>
       <c r="F565" s="3"/>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A566" s="1">
         <v>-3</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="E566" s="2"/>
       <c r="F566" s="3"/>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A567" s="1">
         <v>-3</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="E567" s="2"/>
       <c r="F567" s="3"/>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A568" s="1">
         <v>-3</v>
       </c>
@@ -7764,7 +7764,7 @@
       <c r="E568" s="2"/>
       <c r="F568" s="3"/>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A569" s="1">
         <v>-3</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="E569" s="2"/>
       <c r="F569" s="3"/>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A570" s="1">
         <v>-3</v>
       </c>
@@ -7790,7 +7790,7 @@
       <c r="E570" s="2"/>
       <c r="F570" s="3"/>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A571" s="1">
         <v>-3</v>
       </c>
@@ -7803,7 +7803,7 @@
       <c r="E571" s="2"/>
       <c r="F571" s="3"/>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A572" s="1">
         <v>-3</v>
       </c>
@@ -7816,7 +7816,7 @@
       <c r="E572" s="2"/>
       <c r="F572" s="3"/>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A573" s="1">
         <v>-3</v>
       </c>
@@ -7829,7 +7829,7 @@
       <c r="E573" s="2"/>
       <c r="F573" s="3"/>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A574" s="1">
         <v>-3</v>
       </c>
@@ -7842,7 +7842,7 @@
       <c r="E574" s="2"/>
       <c r="F574" s="3"/>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A575" s="1">
         <v>-3</v>
       </c>
@@ -7855,7 +7855,7 @@
       <c r="E575" s="2"/>
       <c r="F575" s="3"/>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A576" s="1">
         <v>-3</v>
       </c>
@@ -7868,7 +7868,7 @@
       <c r="E576" s="2"/>
       <c r="F576" s="3"/>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A577" s="1">
         <v>-3</v>
       </c>
@@ -7881,7 +7881,7 @@
       <c r="E577" s="2"/>
       <c r="F577" s="3"/>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A578" s="1">
         <v>-3</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="E578" s="2"/>
       <c r="F578" s="3"/>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A579" s="1">
         <v>-3</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="E579" s="2"/>
       <c r="F579" s="3"/>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A580" s="1">
         <v>-3</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="E580" s="2"/>
       <c r="F580" s="3"/>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A581" s="1">
         <v>-3</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="E581" s="2"/>
       <c r="F581" s="3"/>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A582" s="1">
         <v>-3</v>
       </c>
@@ -7946,7 +7946,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="3"/>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A583" s="1">
         <v>-3</v>
       </c>
@@ -7959,7 +7959,7 @@
       <c r="E583" s="2"/>
       <c r="F583" s="3"/>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A584" s="1">
         <v>-3</v>
       </c>
@@ -7972,7 +7972,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="3"/>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>-3</v>
       </c>
@@ -7985,7 +7985,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="3"/>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A586" s="1">
         <v>-3</v>
       </c>
@@ -7998,7 +7998,7 @@
       <c r="E586" s="2"/>
       <c r="F586" s="3"/>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A587" s="1">
         <v>-3</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="3"/>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A588" s="1">
         <v>-3</v>
       </c>
@@ -8024,7 +8024,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="3"/>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A589" s="1">
         <v>-3</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="3"/>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A590" s="1">
         <v>-3</v>
       </c>
@@ -8050,7 +8050,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="3"/>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A591" s="1">
         <v>-3</v>
       </c>
@@ -8063,7 +8063,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="3"/>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A592" s="1">
         <v>-3</v>
       </c>
@@ -8076,7 +8076,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="3"/>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A593" s="1">
         <v>-3</v>
       </c>
@@ -8089,7 +8089,7 @@
       <c r="E593" s="2"/>
       <c r="F593" s="3"/>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A594" s="1">
         <v>-3</v>
       </c>
@@ -8102,7 +8102,7 @@
       <c r="E594" s="2"/>
       <c r="F594" s="3"/>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A595" s="1">
         <v>-3</v>
       </c>
@@ -8115,7 +8115,7 @@
       <c r="E595" s="2"/>
       <c r="F595" s="3"/>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A596" s="1">
         <v>-3</v>
       </c>
@@ -8128,7 +8128,7 @@
       <c r="E596" s="2"/>
       <c r="F596" s="3"/>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A597" s="1">
         <v>-3</v>
       </c>
@@ -8141,7 +8141,7 @@
       <c r="E597" s="2"/>
       <c r="F597" s="3"/>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A598" s="1">
         <v>-3</v>
       </c>
@@ -8154,7 +8154,7 @@
       <c r="E598" s="2"/>
       <c r="F598" s="3"/>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A599" s="1">
         <v>-3</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="E599" s="2"/>
       <c r="F599" s="3"/>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A600" s="1">
         <v>-3</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="E600" s="2"/>
       <c r="F600" s="3"/>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A601" s="1">
         <v>-3</v>
       </c>
@@ -8193,7 +8193,7 @@
       <c r="E601" s="2"/>
       <c r="F601" s="3"/>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A602" s="1">
         <v>-3</v>
       </c>
@@ -8206,7 +8206,7 @@
       <c r="E602" s="2"/>
       <c r="F602" s="3"/>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A603" s="1">
         <v>-3</v>
       </c>
@@ -8219,7 +8219,7 @@
       <c r="E603" s="2"/>
       <c r="F603" s="3"/>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A604" s="1">
         <v>-3</v>
       </c>
@@ -8232,7 +8232,7 @@
       <c r="E604" s="2"/>
       <c r="F604" s="3"/>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>-3</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="E605" s="2"/>
       <c r="F605" s="3"/>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>-3</v>
       </c>
@@ -8258,7 +8258,7 @@
       <c r="E606" s="2"/>
       <c r="F606" s="3"/>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>-3</v>
       </c>
@@ -8271,7 +8271,7 @@
       <c r="E607" s="2"/>
       <c r="F607" s="3"/>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>-3</v>
       </c>
@@ -8284,7 +8284,7 @@
       <c r="E608" s="2"/>
       <c r="F608" s="3"/>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A609" s="1">
         <v>-3</v>
       </c>
@@ -8297,7 +8297,7 @@
       <c r="E609" s="2"/>
       <c r="F609" s="3"/>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A610" s="1">
         <v>-3</v>
       </c>
@@ -8310,7 +8310,7 @@
       <c r="E610" s="2"/>
       <c r="F610" s="3"/>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A611" s="1">
         <v>-3</v>
       </c>
@@ -8323,7 +8323,7 @@
       <c r="E611" s="2"/>
       <c r="F611" s="3"/>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A612" s="1">
         <v>-3</v>
       </c>
@@ -8336,7 +8336,7 @@
       <c r="E612" s="2"/>
       <c r="F612" s="3"/>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A613" s="1">
         <v>-3</v>
       </c>
@@ -8349,7 +8349,7 @@
       <c r="E613" s="2"/>
       <c r="F613" s="3"/>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A614" s="1">
         <v>-3</v>
       </c>
@@ -8362,7 +8362,7 @@
       <c r="E614" s="2"/>
       <c r="F614" s="3"/>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A615" s="1">
         <v>-3</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="E615" s="2"/>
       <c r="F615" s="3"/>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A616" s="1">
         <v>-3</v>
       </c>
@@ -8388,7 +8388,7 @@
       <c r="E616" s="2"/>
       <c r="F616" s="3"/>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A617" s="1">
         <v>-3</v>
       </c>
@@ -8401,7 +8401,7 @@
       <c r="E617" s="2"/>
       <c r="F617" s="3"/>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A618" s="1">
         <v>-3</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="E618" s="2"/>
       <c r="F618" s="3"/>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A619" s="1">
         <v>-3</v>
       </c>
@@ -8427,7 +8427,7 @@
       <c r="E619" s="2"/>
       <c r="F619" s="3"/>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A620" s="1">
         <v>-3</v>
       </c>
@@ -8440,7 +8440,7 @@
       <c r="E620" s="2"/>
       <c r="F620" s="3"/>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A621" s="1">
         <v>-3</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="E621" s="2"/>
       <c r="F621" s="3"/>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A622" s="1">
         <v>-3</v>
       </c>
@@ -8466,7 +8466,7 @@
       <c r="E622" s="2"/>
       <c r="F622" s="3"/>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A623" s="1">
         <v>-3</v>
       </c>
@@ -8479,7 +8479,7 @@
       <c r="E623" s="2"/>
       <c r="F623" s="3"/>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A624" s="1">
         <v>-3</v>
       </c>
@@ -8492,7 +8492,7 @@
       <c r="E624" s="2"/>
       <c r="F624" s="3"/>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>-3</v>
       </c>
@@ -8505,7 +8505,7 @@
       <c r="E625" s="2"/>
       <c r="F625" s="3"/>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>-3</v>
       </c>
@@ -8518,7 +8518,7 @@
       <c r="E626" s="2"/>
       <c r="F626" s="3"/>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>-3</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="E627" s="2"/>
       <c r="F627" s="3"/>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>-3</v>
       </c>
@@ -8544,7 +8544,7 @@
       <c r="E628" s="2"/>
       <c r="F628" s="3"/>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>-3</v>
       </c>
@@ -8557,7 +8557,7 @@
       <c r="E629" s="2"/>
       <c r="F629" s="3"/>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>-3</v>
       </c>
@@ -8570,7 +8570,7 @@
       <c r="E630" s="2"/>
       <c r="F630" s="3"/>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>-3</v>
       </c>
@@ -8583,7 +8583,7 @@
       <c r="E631" s="2"/>
       <c r="F631" s="3"/>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>-3</v>
       </c>
@@ -8596,7 +8596,7 @@
       <c r="E632" s="2"/>
       <c r="F632" s="3"/>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>-3</v>
       </c>
@@ -8609,7 +8609,7 @@
       <c r="E633" s="2"/>
       <c r="F633" s="3"/>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>-3</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="E634" s="2"/>
       <c r="F634" s="3"/>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>-3</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="E635" s="2"/>
       <c r="F635" s="3"/>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>-3</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="E636" s="2"/>
       <c r="F636" s="3"/>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>-3</v>
       </c>
@@ -8661,7 +8661,7 @@
       <c r="E637" s="2"/>
       <c r="F637" s="3"/>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>-3</v>
       </c>
@@ -8674,7 +8674,7 @@
       <c r="E638" s="2"/>
       <c r="F638" s="3"/>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>-3</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="E639" s="2"/>
       <c r="F639" s="3"/>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>-3</v>
       </c>
@@ -8700,7 +8700,7 @@
       <c r="E640" s="2"/>
       <c r="F640" s="3"/>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>-3</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="E641" s="2"/>
       <c r="F641" s="3"/>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>-3</v>
       </c>
@@ -8726,7 +8726,7 @@
       <c r="E642" s="2"/>
       <c r="F642" s="3"/>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>-3</v>
       </c>
@@ -8739,7 +8739,7 @@
       <c r="E643" s="2"/>
       <c r="F643" s="3"/>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>-3</v>
       </c>
@@ -8752,7 +8752,7 @@
       <c r="E644" s="2"/>
       <c r="F644" s="3"/>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>-3</v>
       </c>
@@ -8765,7 +8765,7 @@
       <c r="E645" s="2"/>
       <c r="F645" s="3"/>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>-3</v>
       </c>
@@ -8778,7 +8778,7 @@
       <c r="E646" s="2"/>
       <c r="F646" s="3"/>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>-3</v>
       </c>
@@ -8791,7 +8791,7 @@
       <c r="E647" s="2"/>
       <c r="F647" s="3"/>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>-3</v>
       </c>
@@ -8804,7 +8804,7 @@
       <c r="E648" s="2"/>
       <c r="F648" s="3"/>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>-3</v>
       </c>
@@ -8817,7 +8817,7 @@
       <c r="E649" s="2"/>
       <c r="F649" s="3"/>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>-3</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="E650" s="2"/>
       <c r="F650" s="3"/>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>-3</v>
       </c>
@@ -8843,7 +8843,7 @@
       <c r="E651" s="2"/>
       <c r="F651" s="3"/>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>-3</v>
       </c>
@@ -8856,7 +8856,7 @@
       <c r="E652" s="2"/>
       <c r="F652" s="3"/>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>-3</v>
       </c>
@@ -8869,7 +8869,7 @@
       <c r="E653" s="2"/>
       <c r="F653" s="3"/>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>-3</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="E654" s="2"/>
       <c r="F654" s="3"/>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>-3</v>
       </c>
@@ -8895,7 +8895,7 @@
       <c r="E655" s="2"/>
       <c r="F655" s="3"/>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>-3</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="E656" s="2"/>
       <c r="F656" s="3"/>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A657" s="1">
         <v>-3</v>
       </c>
@@ -8921,7 +8921,7 @@
       <c r="E657" s="2"/>
       <c r="F657" s="3"/>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A658" s="1">
         <v>-3</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="E658" s="2"/>
       <c r="F658" s="3"/>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A659" s="1">
         <v>-3</v>
       </c>
@@ -8947,7 +8947,7 @@
       <c r="E659" s="2"/>
       <c r="F659" s="3"/>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A660" s="1">
         <v>-3</v>
       </c>
@@ -8960,7 +8960,7 @@
       <c r="E660" s="2"/>
       <c r="F660" s="3"/>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A661" s="1">
         <v>-3</v>
       </c>
@@ -8973,7 +8973,7 @@
       <c r="E661" s="2"/>
       <c r="F661" s="3"/>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A662" s="1">
         <v>-3</v>
       </c>
@@ -8986,7 +8986,7 @@
       <c r="E662" s="2"/>
       <c r="F662" s="3"/>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A663" s="1">
         <v>-3</v>
       </c>
@@ -8999,7 +8999,7 @@
       <c r="E663" s="2"/>
       <c r="F663" s="3"/>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A664" s="1">
         <v>-3</v>
       </c>
@@ -9012,7 +9012,7 @@
       <c r="E664" s="2"/>
       <c r="F664" s="3"/>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A665" s="1">
         <v>-3</v>
       </c>
@@ -9025,7 +9025,7 @@
       <c r="E665" s="2"/>
       <c r="F665" s="3"/>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A666" s="1">
         <v>-3</v>
       </c>
@@ -9038,7 +9038,7 @@
       <c r="E666" s="2"/>
       <c r="F666" s="3"/>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A667" s="1">
         <v>-3</v>
       </c>
@@ -9051,7 +9051,7 @@
       <c r="E667" s="2"/>
       <c r="F667" s="3"/>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A668" s="1">
         <v>-3</v>
       </c>
@@ -9064,7 +9064,7 @@
       <c r="E668" s="2"/>
       <c r="F668" s="3"/>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A669" s="1">
         <v>-3</v>
       </c>
@@ -9077,7 +9077,7 @@
       <c r="E669" s="2"/>
       <c r="F669" s="3"/>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A670" s="1">
         <v>-3</v>
       </c>
@@ -9090,7 +9090,7 @@
       <c r="E670" s="2"/>
       <c r="F670" s="3"/>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A671" s="1">
         <v>-3</v>
       </c>
@@ -9103,7 +9103,7 @@
       <c r="E671" s="2"/>
       <c r="F671" s="3"/>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A672" s="1">
         <v>-3</v>
       </c>
@@ -9116,7 +9116,7 @@
       <c r="E672" s="2"/>
       <c r="F672" s="3"/>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>-3</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="E673" s="2"/>
       <c r="F673" s="3"/>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>-3</v>
       </c>
@@ -9142,7 +9142,7 @@
       <c r="E674" s="2"/>
       <c r="F674" s="3"/>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>-3</v>
       </c>
@@ -9155,7 +9155,7 @@
       <c r="E675" s="2"/>
       <c r="F675" s="3"/>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>-3</v>
       </c>
@@ -9168,7 +9168,7 @@
       <c r="E676" s="2"/>
       <c r="F676" s="3"/>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>-3</v>
       </c>
@@ -9181,7 +9181,7 @@
       <c r="E677" s="2"/>
       <c r="F677" s="3"/>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>-3</v>
       </c>
@@ -9194,7 +9194,7 @@
       <c r="E678" s="2"/>
       <c r="F678" s="3"/>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>-3</v>
       </c>
@@ -9207,7 +9207,7 @@
       <c r="E679" s="2"/>
       <c r="F679" s="3"/>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>-3</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="E680" s="2"/>
       <c r="F680" s="3"/>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>-3</v>
       </c>
@@ -9233,7 +9233,7 @@
       <c r="E681" s="2"/>
       <c r="F681" s="3"/>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>-3</v>
       </c>
@@ -9246,7 +9246,7 @@
       <c r="E682" s="2"/>
       <c r="F682" s="3"/>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>-3</v>
       </c>
@@ -9259,7 +9259,7 @@
       <c r="E683" s="2"/>
       <c r="F683" s="3"/>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>-3</v>
       </c>
@@ -9272,7 +9272,7 @@
       <c r="E684" s="2"/>
       <c r="F684" s="3"/>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>-3</v>
       </c>
@@ -9285,7 +9285,7 @@
       <c r="E685" s="2"/>
       <c r="F685" s="3"/>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>-3</v>
       </c>
@@ -9298,7 +9298,7 @@
       <c r="E686" s="2"/>
       <c r="F686" s="3"/>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>-3</v>
       </c>
@@ -9311,7 +9311,7 @@
       <c r="E687" s="2"/>
       <c r="F687" s="3"/>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>-3</v>
       </c>
@@ -9324,7 +9324,7 @@
       <c r="E688" s="2"/>
       <c r="F688" s="3"/>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>-3</v>
       </c>
@@ -9337,7 +9337,7 @@
       <c r="E689" s="2"/>
       <c r="F689" s="3"/>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>-3</v>
       </c>
@@ -9350,7 +9350,7 @@
       <c r="E690" s="2"/>
       <c r="F690" s="3"/>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>-3</v>
       </c>
@@ -9363,7 +9363,7 @@
       <c r="E691" s="2"/>
       <c r="F691" s="3"/>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>-3</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="E692" s="2"/>
       <c r="F692" s="3"/>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>-3</v>
       </c>
@@ -9389,7 +9389,7 @@
       <c r="E693" s="2"/>
       <c r="F693" s="3"/>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>-3</v>
       </c>
@@ -9402,7 +9402,7 @@
       <c r="E694" s="2"/>
       <c r="F694" s="3"/>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>-3</v>
       </c>
@@ -9415,7 +9415,7 @@
       <c r="E695" s="2"/>
       <c r="F695" s="3"/>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>-3</v>
       </c>
@@ -9428,7 +9428,7 @@
       <c r="E696" s="2"/>
       <c r="F696" s="3"/>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>-3</v>
       </c>
@@ -9441,7 +9441,7 @@
       <c r="E697" s="2"/>
       <c r="F697" s="3"/>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>-3</v>
       </c>
@@ -9454,7 +9454,7 @@
       <c r="E698" s="2"/>
       <c r="F698" s="3"/>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>-3</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="E699" s="2"/>
       <c r="F699" s="3"/>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>-3</v>
       </c>
@@ -9480,7 +9480,7 @@
       <c r="E700" s="2"/>
       <c r="F700" s="3"/>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>-3</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="E701" s="2"/>
       <c r="F701" s="3"/>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>-3</v>
       </c>
@@ -9506,7 +9506,7 @@
       <c r="E702" s="2"/>
       <c r="F702" s="3"/>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>-3</v>
       </c>
@@ -9519,7 +9519,7 @@
       <c r="E703" s="2"/>
       <c r="F703" s="3"/>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>-3</v>
       </c>
@@ -9532,7 +9532,7 @@
       <c r="E704" s="2"/>
       <c r="F704" s="3"/>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>-3</v>
       </c>
@@ -9545,7 +9545,7 @@
       <c r="E705" s="2"/>
       <c r="F705" s="3"/>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>-3</v>
       </c>
@@ -9558,7 +9558,7 @@
       <c r="E706" s="2"/>
       <c r="F706" s="3"/>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>-3</v>
       </c>
@@ -9571,7 +9571,7 @@
       <c r="E707" s="2"/>
       <c r="F707" s="3"/>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>-3</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="E708" s="2"/>
       <c r="F708" s="3"/>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>-3</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="E709" s="2"/>
       <c r="F709" s="3"/>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>-3</v>
       </c>
@@ -9610,7 +9610,7 @@
       <c r="E710" s="2"/>
       <c r="F710" s="3"/>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>-3</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="E711" s="2"/>
       <c r="F711" s="3"/>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>-3</v>
       </c>
@@ -9636,7 +9636,7 @@
       <c r="E712" s="2"/>
       <c r="F712" s="3"/>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>-3</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="E713" s="2"/>
       <c r="F713" s="3"/>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>-3</v>
       </c>
@@ -9662,7 +9662,7 @@
       <c r="E714" s="2"/>
       <c r="F714" s="3"/>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>-3</v>
       </c>
@@ -9675,7 +9675,7 @@
       <c r="E715" s="2"/>
       <c r="F715" s="3"/>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>-3</v>
       </c>
@@ -9688,7 +9688,7 @@
       <c r="E716" s="2"/>
       <c r="F716" s="3"/>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>-3</v>
       </c>
@@ -9701,7 +9701,7 @@
       <c r="E717" s="2"/>
       <c r="F717" s="3"/>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>-3</v>
       </c>
@@ -9714,7 +9714,7 @@
       <c r="E718" s="2"/>
       <c r="F718" s="3"/>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>-3</v>
       </c>
@@ -9727,7 +9727,7 @@
       <c r="E719" s="2"/>
       <c r="F719" s="3"/>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>-3</v>
       </c>
@@ -9740,7 +9740,7 @@
       <c r="E720" s="2"/>
       <c r="F720" s="3"/>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A721" s="1">
         <v>-3</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="E721" s="2"/>
       <c r="F721" s="3"/>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A722" s="1">
         <v>-3</v>
       </c>
@@ -9766,7 +9766,7 @@
       <c r="E722" s="2"/>
       <c r="F722" s="3"/>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A723" s="1">
         <v>-3</v>
       </c>
@@ -9779,7 +9779,7 @@
       <c r="E723" s="2"/>
       <c r="F723" s="3"/>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A724" s="1">
         <v>-3</v>
       </c>
@@ -9792,7 +9792,7 @@
       <c r="E724" s="2"/>
       <c r="F724" s="3"/>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A725" s="1">
         <v>-3</v>
       </c>
@@ -9805,7 +9805,7 @@
       <c r="E725" s="2"/>
       <c r="F725" s="3"/>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A726" s="1">
         <v>-3</v>
       </c>
@@ -9818,7 +9818,7 @@
       <c r="E726" s="2"/>
       <c r="F726" s="3"/>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A727" s="1">
         <v>-3</v>
       </c>
@@ -9831,7 +9831,7 @@
       <c r="E727" s="2"/>
       <c r="F727" s="3"/>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A728" s="1">
         <v>-3</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="E728" s="2"/>
       <c r="F728" s="3"/>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A729" s="1">
         <v>-3</v>
       </c>
@@ -9857,7 +9857,7 @@
       <c r="E729" s="2"/>
       <c r="F729" s="3"/>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A730" s="1">
         <v>-3</v>
       </c>
@@ -9870,7 +9870,7 @@
       <c r="E730" s="2"/>
       <c r="F730" s="3"/>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A731" s="1">
         <v>-3</v>
       </c>
@@ -9883,7 +9883,7 @@
       <c r="E731" s="2"/>
       <c r="F731" s="3"/>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A732" s="1">
         <v>-3</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="E732" s="2"/>
       <c r="F732" s="3"/>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A733" s="1">
         <v>-3</v>
       </c>
@@ -9909,7 +9909,7 @@
       <c r="E733" s="2"/>
       <c r="F733" s="3"/>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A734" s="1">
         <v>-3</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="E734" s="2"/>
       <c r="F734" s="3"/>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A735" s="1">
         <v>-3</v>
       </c>
@@ -9935,7 +9935,7 @@
       <c r="E735" s="2"/>
       <c r="F735" s="3"/>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A736" s="1">
         <v>-3</v>
       </c>
@@ -9948,7 +9948,7 @@
       <c r="E736" s="2"/>
       <c r="F736" s="3"/>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A737" s="1">
         <v>-3</v>
       </c>
@@ -9961,7 +9961,7 @@
       <c r="E737" s="2"/>
       <c r="F737" s="3"/>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A738" s="1">
         <v>-3</v>
       </c>
@@ -9974,7 +9974,7 @@
       <c r="E738" s="2"/>
       <c r="F738" s="3"/>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A739" s="1">
         <v>-3</v>
       </c>
@@ -9987,7 +9987,7 @@
       <c r="E739" s="2"/>
       <c r="F739" s="3"/>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A740" s="1">
         <v>-3</v>
       </c>
@@ -10000,7 +10000,7 @@
       <c r="E740" s="2"/>
       <c r="F740" s="3"/>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A741" s="1">
         <v>-3</v>
       </c>
@@ -10013,7 +10013,7 @@
       <c r="E741" s="2"/>
       <c r="F741" s="3"/>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A742" s="1">
         <v>-3</v>
       </c>
@@ -10026,7 +10026,7 @@
       <c r="E742" s="2"/>
       <c r="F742" s="3"/>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A743" s="1">
         <v>-3</v>
       </c>
@@ -10039,7 +10039,7 @@
       <c r="E743" s="2"/>
       <c r="F743" s="3"/>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A744" s="1">
         <v>-3</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="E744" s="2"/>
       <c r="F744" s="3"/>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A745" s="1">
         <v>-3</v>
       </c>
@@ -10065,7 +10065,7 @@
       <c r="E745" s="2"/>
       <c r="F745" s="3"/>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A746" s="1">
         <v>-3</v>
       </c>
@@ -10078,7 +10078,7 @@
       <c r="E746" s="2"/>
       <c r="F746" s="3"/>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A747" s="1">
         <v>-3</v>
       </c>
@@ -10091,7 +10091,7 @@
       <c r="E747" s="2"/>
       <c r="F747" s="3"/>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A748" s="1">
         <v>-3</v>
       </c>
@@ -10104,7 +10104,7 @@
       <c r="E748" s="2"/>
       <c r="F748" s="3"/>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A749" s="1">
         <v>-3</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="E749" s="2"/>
       <c r="F749" s="3"/>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A750" s="1">
         <v>-3</v>
       </c>
@@ -10130,7 +10130,7 @@
       <c r="E750" s="2"/>
       <c r="F750" s="3"/>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A751" s="1">
         <v>-3</v>
       </c>
@@ -10143,7 +10143,7 @@
       <c r="E751" s="2"/>
       <c r="F751" s="3"/>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A752" s="1">
         <v>-3</v>
       </c>
@@ -10156,7 +10156,7 @@
       <c r="E752" s="2"/>
       <c r="F752" s="3"/>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A753" s="1">
         <v>-3</v>
       </c>
@@ -10169,7 +10169,7 @@
       <c r="E753" s="2"/>
       <c r="F753" s="3"/>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A754" s="1">
         <v>-3</v>
       </c>
@@ -10182,7 +10182,7 @@
       <c r="E754" s="2"/>
       <c r="F754" s="3"/>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A755" s="1">
         <v>-3</v>
       </c>
@@ -10195,7 +10195,7 @@
       <c r="E755" s="2"/>
       <c r="F755" s="3"/>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A756" s="1">
         <v>-3</v>
       </c>
@@ -10208,7 +10208,7 @@
       <c r="E756" s="2"/>
       <c r="F756" s="3"/>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A757" s="1">
         <v>-3</v>
       </c>
@@ -10221,7 +10221,7 @@
       <c r="E757" s="2"/>
       <c r="F757" s="3"/>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A758" s="1">
         <v>-3</v>
       </c>
@@ -10234,7 +10234,7 @@
       <c r="E758" s="2"/>
       <c r="F758" s="3"/>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A759" s="1">
         <v>-3</v>
       </c>
@@ -10247,7 +10247,7 @@
       <c r="E759" s="2"/>
       <c r="F759" s="3"/>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A760" s="1">
         <v>-3</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="E760" s="2"/>
       <c r="F760" s="3"/>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A761" s="1">
         <v>-3</v>
       </c>
@@ -10273,7 +10273,7 @@
       <c r="E761" s="2"/>
       <c r="F761" s="3"/>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A762" s="1">
         <v>-3</v>
       </c>
@@ -10286,7 +10286,7 @@
       <c r="E762" s="2"/>
       <c r="F762" s="3"/>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A763" s="1">
         <v>-3</v>
       </c>
@@ -10299,7 +10299,7 @@
       <c r="E763" s="2"/>
       <c r="F763" s="3"/>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A764" s="1">
         <v>-3</v>
       </c>
@@ -10312,7 +10312,7 @@
       <c r="E764" s="2"/>
       <c r="F764" s="3"/>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A765" s="1">
         <v>-3</v>
       </c>
@@ -10325,7 +10325,7 @@
       <c r="E765" s="2"/>
       <c r="F765" s="3"/>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A766" s="1">
         <v>-3</v>
       </c>
@@ -10338,7 +10338,7 @@
       <c r="E766" s="2"/>
       <c r="F766" s="3"/>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A767" s="1">
         <v>-3</v>
       </c>
@@ -10351,7 +10351,7 @@
       <c r="E767" s="2"/>
       <c r="F767" s="3"/>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A768" s="1">
         <v>-3</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="E768" s="2"/>
       <c r="F768" s="3"/>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A769" s="1">
         <v>-3</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="E769" s="2"/>
       <c r="F769" s="3"/>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="1">
         <v>-3</v>
       </c>
@@ -10390,7 +10390,7 @@
       <c r="E770" s="2"/>
       <c r="F770" s="3"/>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="1">
         <v>-3</v>
       </c>
@@ -10403,7 +10403,7 @@
       <c r="E771" s="2"/>
       <c r="F771" s="3"/>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A772" s="1">
         <v>-3</v>
       </c>
@@ -10416,7 +10416,7 @@
       <c r="E772" s="2"/>
       <c r="F772" s="3"/>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A773" s="1">
         <v>-3</v>
       </c>
@@ -10429,7 +10429,7 @@
       <c r="E773" s="2"/>
       <c r="F773" s="3"/>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A774" s="1">
         <v>-3</v>
       </c>
@@ -10442,7 +10442,7 @@
       <c r="E774" s="2"/>
       <c r="F774" s="3"/>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A775" s="1">
         <v>-3</v>
       </c>
@@ -10455,7 +10455,7 @@
       <c r="E775" s="2"/>
       <c r="F775" s="3"/>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A776" s="1">
         <v>-3</v>
       </c>
@@ -10468,7 +10468,7 @@
       <c r="E776" s="2"/>
       <c r="F776" s="3"/>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A777" s="1">
         <v>-3</v>
       </c>
@@ -10481,7 +10481,7 @@
       <c r="E777" s="2"/>
       <c r="F777" s="3"/>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A778" s="1">
         <v>-3</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="E778" s="2"/>
       <c r="F778" s="3"/>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A779" s="1">
         <v>-3</v>
       </c>
@@ -10507,7 +10507,7 @@
       <c r="E779" s="2"/>
       <c r="F779" s="3"/>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A780" s="1">
         <v>-3</v>
       </c>
@@ -10520,7 +10520,7 @@
       <c r="E780" s="2"/>
       <c r="F780" s="3"/>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A781" s="1">
         <v>-3</v>
       </c>
@@ -10533,7 +10533,7 @@
       <c r="E781" s="2"/>
       <c r="F781" s="3"/>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A782" s="1">
         <v>-3</v>
       </c>
@@ -10546,7 +10546,7 @@
       <c r="E782" s="2"/>
       <c r="F782" s="3"/>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A783" s="1">
         <v>-3</v>
       </c>
@@ -10559,7 +10559,7 @@
       <c r="E783" s="2"/>
       <c r="F783" s="3"/>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A784" s="1">
         <v>-3</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="E784" s="2"/>
       <c r="F784" s="3"/>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A785" s="1">
         <v>-3</v>
       </c>
@@ -10585,7 +10585,7 @@
       <c r="E785" s="2"/>
       <c r="F785" s="3"/>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A786" s="1">
         <v>-3</v>
       </c>
@@ -10598,7 +10598,7 @@
       <c r="E786" s="2"/>
       <c r="F786" s="3"/>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A787" s="1">
         <v>-3</v>
       </c>
@@ -10611,7 +10611,7 @@
       <c r="E787" s="2"/>
       <c r="F787" s="3"/>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A788" s="1">
         <v>-3</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="E788" s="2"/>
       <c r="F788" s="3"/>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A789" s="1">
         <v>-3</v>
       </c>
@@ -10637,7 +10637,7 @@
       <c r="E789" s="2"/>
       <c r="F789" s="3"/>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A790" s="1">
         <v>-3</v>
       </c>
@@ -10650,7 +10650,7 @@
       <c r="E790" s="2"/>
       <c r="F790" s="3"/>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A791" s="1">
         <v>-3</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="E791" s="2"/>
       <c r="F791" s="3"/>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A792" s="1">
         <v>-3</v>
       </c>
@@ -10676,7 +10676,7 @@
       <c r="E792" s="2"/>
       <c r="F792" s="3"/>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A793" s="1">
         <v>-3</v>
       </c>
@@ -10689,7 +10689,7 @@
       <c r="E793" s="2"/>
       <c r="F793" s="3"/>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A794" s="1">
         <v>-3</v>
       </c>
@@ -10702,7 +10702,7 @@
       <c r="E794" s="2"/>
       <c r="F794" s="3"/>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A795" s="1">
         <v>-3</v>
       </c>
@@ -10715,7 +10715,7 @@
       <c r="E795" s="2"/>
       <c r="F795" s="3"/>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A796" s="1">
         <v>-3</v>
       </c>
@@ -10728,7 +10728,7 @@
       <c r="E796" s="2"/>
       <c r="F796" s="3"/>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A797" s="1">
         <v>-3</v>
       </c>
@@ -10741,7 +10741,7 @@
       <c r="E797" s="2"/>
       <c r="F797" s="3"/>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A798" s="1">
         <v>-3</v>
       </c>
@@ -10754,7 +10754,7 @@
       <c r="E798" s="2"/>
       <c r="F798" s="3"/>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A799" s="1">
         <v>-3</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="E799" s="2"/>
       <c r="F799" s="3"/>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A800" s="1">
         <v>-3</v>
       </c>
@@ -10780,7 +10780,7 @@
       <c r="E800" s="2"/>
       <c r="F800" s="3"/>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A801" s="1">
         <v>-3</v>
       </c>
@@ -10793,7 +10793,7 @@
       <c r="E801" s="2"/>
       <c r="F801" s="3"/>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A802" s="1">
         <v>-3</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="E802" s="2"/>
       <c r="F802" s="3"/>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A803" s="1">
         <v>-3</v>
       </c>
@@ -10819,7 +10819,7 @@
       <c r="E803" s="2"/>
       <c r="F803" s="3"/>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A804" s="1">
         <v>-3</v>
       </c>
@@ -10832,7 +10832,7 @@
       <c r="E804" s="2"/>
       <c r="F804" s="3"/>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A805" s="1">
         <v>-3</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="E805" s="2"/>
       <c r="F805" s="3"/>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A806" s="1">
         <v>-3</v>
       </c>
@@ -10858,7 +10858,7 @@
       <c r="E806" s="2"/>
       <c r="F806" s="3"/>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A807" s="1">
         <v>-3</v>
       </c>
@@ -10871,7 +10871,7 @@
       <c r="E807" s="2"/>
       <c r="F807" s="3"/>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A808" s="1">
         <v>-3</v>
       </c>
@@ -10884,7 +10884,7 @@
       <c r="E808" s="2"/>
       <c r="F808" s="3"/>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A809" s="1">
         <v>-3</v>
       </c>
@@ -10897,7 +10897,7 @@
       <c r="E809" s="2"/>
       <c r="F809" s="3"/>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A810" s="1">
         <v>-3</v>
       </c>
@@ -10910,7 +10910,7 @@
       <c r="E810" s="2"/>
       <c r="F810" s="3"/>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A811" s="1">
         <v>-3</v>
       </c>
@@ -10923,7 +10923,7 @@
       <c r="E811" s="2"/>
       <c r="F811" s="3"/>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A812" s="1">
         <v>-3</v>
       </c>
@@ -10936,7 +10936,7 @@
       <c r="E812" s="2"/>
       <c r="F812" s="3"/>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A813" s="1">
         <v>-3</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="E813" s="2"/>
       <c r="F813" s="3"/>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A814" s="1">
         <v>-3</v>
       </c>
@@ -10962,7 +10962,7 @@
       <c r="E814" s="2"/>
       <c r="F814" s="3"/>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A815" s="1">
         <v>-3</v>
       </c>
@@ -10975,7 +10975,7 @@
       <c r="E815" s="2"/>
       <c r="F815" s="3"/>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A816" s="1">
         <v>-3</v>
       </c>
@@ -10988,7 +10988,7 @@
       <c r="E816" s="2"/>
       <c r="F816" s="3"/>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A817" s="1">
         <v>-3</v>
       </c>
@@ -11001,7 +11001,7 @@
       <c r="E817" s="2"/>
       <c r="F817" s="3"/>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A818" s="1">
         <v>-3</v>
       </c>
@@ -11014,7 +11014,7 @@
       <c r="E818" s="2"/>
       <c r="F818" s="3"/>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A819" s="1">
         <v>-3</v>
       </c>
@@ -11027,7 +11027,7 @@
       <c r="E819" s="2"/>
       <c r="F819" s="3"/>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A820" s="1">
         <v>-3</v>
       </c>
@@ -11040,7 +11040,7 @@
       <c r="E820" s="2"/>
       <c r="F820" s="3"/>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A821" s="1">
         <v>-3</v>
       </c>
@@ -11053,7 +11053,7 @@
       <c r="E821" s="2"/>
       <c r="F821" s="3"/>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A822" s="1">
         <v>-3</v>
       </c>
@@ -11066,7 +11066,7 @@
       <c r="E822" s="2"/>
       <c r="F822" s="3"/>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A823" s="1">
         <v>-3</v>
       </c>
@@ -11079,7 +11079,7 @@
       <c r="E823" s="2"/>
       <c r="F823" s="3"/>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A824" s="1">
         <v>-3</v>
       </c>
@@ -11092,7 +11092,7 @@
       <c r="E824" s="2"/>
       <c r="F824" s="3"/>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A825" s="1">
         <v>-3</v>
       </c>
@@ -11105,7 +11105,7 @@
       <c r="E825" s="2"/>
       <c r="F825" s="3"/>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A826" s="1">
         <v>-3</v>
       </c>
@@ -11118,7 +11118,7 @@
       <c r="E826" s="2"/>
       <c r="F826" s="3"/>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A827" s="1">
         <v>-3</v>
       </c>
@@ -11131,7 +11131,7 @@
       <c r="E827" s="2"/>
       <c r="F827" s="3"/>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A828" s="1">
         <v>-3</v>
       </c>
@@ -11144,7 +11144,7 @@
       <c r="E828" s="2"/>
       <c r="F828" s="3"/>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A829" s="1">
         <v>-3</v>
       </c>
@@ -11157,7 +11157,7 @@
       <c r="E829" s="2"/>
       <c r="F829" s="3"/>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A830" s="1">
         <v>-3</v>
       </c>
@@ -11170,7 +11170,7 @@
       <c r="E830" s="2"/>
       <c r="F830" s="3"/>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A831" s="1">
         <v>-3</v>
       </c>
@@ -11183,7 +11183,7 @@
       <c r="E831" s="2"/>
       <c r="F831" s="3"/>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A832" s="1">
         <v>-3</v>
       </c>
@@ -11196,7 +11196,7 @@
       <c r="E832" s="2"/>
       <c r="F832" s="3"/>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A833" s="1">
         <v>-3</v>
       </c>
@@ -11209,7 +11209,7 @@
       <c r="E833" s="2"/>
       <c r="F833" s="3"/>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A834" s="1">
         <v>-3</v>
       </c>
@@ -11222,7 +11222,7 @@
       <c r="E834" s="2"/>
       <c r="F834" s="3"/>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A835" s="1">
         <v>-3</v>
       </c>
@@ -11235,7 +11235,7 @@
       <c r="E835" s="2"/>
       <c r="F835" s="3"/>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A836" s="1">
         <v>-3</v>
       </c>
@@ -11248,7 +11248,7 @@
       <c r="E836" s="2"/>
       <c r="F836" s="3"/>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A837" s="1">
         <v>-3</v>
       </c>
@@ -11261,7 +11261,7 @@
       <c r="E837" s="2"/>
       <c r="F837" s="3"/>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A838" s="1">
         <v>-3</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="E838" s="2"/>
       <c r="F838" s="3"/>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A839" s="1">
         <v>-3</v>
       </c>
@@ -11287,7 +11287,7 @@
       <c r="E839" s="2"/>
       <c r="F839" s="3"/>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A840" s="1">
         <v>-3</v>
       </c>
@@ -11300,7 +11300,7 @@
       <c r="E840" s="2"/>
       <c r="F840" s="3"/>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A841" s="1">
         <v>-3</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="E841" s="2"/>
       <c r="F841" s="3"/>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A842" s="1">
         <v>-3</v>
       </c>
@@ -11326,7 +11326,7 @@
       <c r="E842" s="2"/>
       <c r="F842" s="3"/>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A843" s="1">
         <v>-3</v>
       </c>
@@ -11339,7 +11339,7 @@
       <c r="E843" s="2"/>
       <c r="F843" s="3"/>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A844" s="1">
         <v>-3</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="E844" s="2"/>
       <c r="F844" s="3"/>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A845" s="1">
         <v>-3</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="E845" s="2"/>
       <c r="F845" s="3"/>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A846" s="1">
         <v>-3</v>
       </c>
@@ -11378,7 +11378,7 @@
       <c r="E846" s="2"/>
       <c r="F846" s="3"/>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A847" s="1">
         <v>-3</v>
       </c>
@@ -11391,7 +11391,7 @@
       <c r="E847" s="2"/>
       <c r="F847" s="3"/>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A848" s="1">
         <v>-3</v>
       </c>
@@ -11404,7 +11404,7 @@
       <c r="E848" s="2"/>
       <c r="F848" s="3"/>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A849" s="1">
         <v>-3</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="E849" s="2"/>
       <c r="F849" s="3"/>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A850" s="1">
         <v>-3</v>
       </c>
@@ -11430,7 +11430,7 @@
       <c r="E850" s="2"/>
       <c r="F850" s="3"/>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A851" s="1">
         <v>-3</v>
       </c>
@@ -11443,7 +11443,7 @@
       <c r="E851" s="2"/>
       <c r="F851" s="3"/>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A852" s="1">
         <v>-3</v>
       </c>
@@ -11456,7 +11456,7 @@
       <c r="E852" s="2"/>
       <c r="F852" s="3"/>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A853" s="1">
         <v>-3</v>
       </c>
@@ -11469,7 +11469,7 @@
       <c r="E853" s="2"/>
       <c r="F853" s="3"/>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A854" s="1">
         <v>-3</v>
       </c>
@@ -11482,7 +11482,7 @@
       <c r="E854" s="2"/>
       <c r="F854" s="3"/>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A855" s="1">
         <v>-3</v>
       </c>
@@ -11495,7 +11495,7 @@
       <c r="E855" s="2"/>
       <c r="F855" s="3"/>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A856" s="1">
         <v>-3</v>
       </c>
@@ -11508,7 +11508,7 @@
       <c r="E856" s="2"/>
       <c r="F856" s="3"/>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A857" s="1">
         <v>-3</v>
       </c>
@@ -11521,7 +11521,7 @@
       <c r="E857" s="2"/>
       <c r="F857" s="3"/>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A858" s="1">
         <v>-3</v>
       </c>
@@ -11534,7 +11534,7 @@
       <c r="E858" s="2"/>
       <c r="F858" s="3"/>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A859" s="1">
         <v>-3</v>
       </c>
@@ -11547,7 +11547,7 @@
       <c r="E859" s="2"/>
       <c r="F859" s="3"/>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A860" s="1">
         <v>-3</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="E860" s="2"/>
       <c r="F860" s="3"/>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A861" s="1">
         <v>-3</v>
       </c>
@@ -11573,7 +11573,7 @@
       <c r="E861" s="2"/>
       <c r="F861" s="3"/>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A862" s="1">
         <v>-3</v>
       </c>
@@ -11586,7 +11586,7 @@
       <c r="E862" s="2"/>
       <c r="F862" s="3"/>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A863" s="1">
         <v>-3</v>
       </c>
@@ -11599,7 +11599,7 @@
       <c r="E863" s="2"/>
       <c r="F863" s="3"/>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A864" s="1">
         <v>-3</v>
       </c>
@@ -11612,7 +11612,7 @@
       <c r="E864" s="2"/>
       <c r="F864" s="3"/>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A865" s="1">
         <v>-3</v>
       </c>
@@ -11625,7 +11625,7 @@
       <c r="E865" s="2"/>
       <c r="F865" s="3"/>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A866" s="1">
         <v>-3</v>
       </c>
@@ -11638,7 +11638,7 @@
       <c r="E866" s="2"/>
       <c r="F866" s="3"/>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A867" s="1">
         <v>-3</v>
       </c>
@@ -11651,7 +11651,7 @@
       <c r="E867" s="2"/>
       <c r="F867" s="3"/>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A868" s="1">
         <v>-3</v>
       </c>
@@ -11664,7 +11664,7 @@
       <c r="E868" s="2"/>
       <c r="F868" s="3"/>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A869" s="1">
         <v>-3</v>
       </c>
@@ -11677,7 +11677,7 @@
       <c r="E869" s="2"/>
       <c r="F869" s="3"/>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A870" s="1">
         <v>-3</v>
       </c>
@@ -11690,7 +11690,7 @@
       <c r="E870" s="2"/>
       <c r="F870" s="3"/>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A871" s="1">
         <v>-3</v>
       </c>
@@ -11703,7 +11703,7 @@
       <c r="E871" s="2"/>
       <c r="F871" s="3"/>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A872" s="1">
         <v>-3</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="E872" s="2"/>
       <c r="F872" s="3"/>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A873" s="1">
         <v>-3</v>
       </c>
@@ -11729,7 +11729,7 @@
       <c r="E873" s="2"/>
       <c r="F873" s="3"/>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A874" s="1">
         <v>-3</v>
       </c>
@@ -11742,7 +11742,7 @@
       <c r="E874" s="2"/>
       <c r="F874" s="3"/>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A875" s="1">
         <v>-3</v>
       </c>
@@ -11755,7 +11755,7 @@
       <c r="E875" s="2"/>
       <c r="F875" s="3"/>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A876" s="1">
         <v>-3</v>
       </c>
@@ -11768,7 +11768,7 @@
       <c r="E876" s="2"/>
       <c r="F876" s="3"/>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A877" s="1">
         <v>-3</v>
       </c>
@@ -11781,7 +11781,7 @@
       <c r="E877" s="2"/>
       <c r="F877" s="3"/>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A878" s="1">
         <v>-3</v>
       </c>
@@ -11794,7 +11794,7 @@
       <c r="E878" s="2"/>
       <c r="F878" s="3"/>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A879" s="1">
         <v>-3</v>
       </c>
@@ -11807,7 +11807,7 @@
       <c r="E879" s="2"/>
       <c r="F879" s="3"/>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A880" s="1">
         <v>-3</v>
       </c>
@@ -11820,7 +11820,7 @@
       <c r="E880" s="2"/>
       <c r="F880" s="3"/>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A881" s="1">
         <v>-3</v>
       </c>
@@ -11833,7 +11833,7 @@
       <c r="E881" s="2"/>
       <c r="F881" s="3"/>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A882" s="1">
         <v>-3</v>
       </c>
@@ -11846,7 +11846,7 @@
       <c r="E882" s="2"/>
       <c r="F882" s="3"/>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A883" s="1">
         <v>-3</v>
       </c>
@@ -11859,7 +11859,7 @@
       <c r="E883" s="2"/>
       <c r="F883" s="3"/>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A884" s="1">
         <v>-3</v>
       </c>
@@ -11872,7 +11872,7 @@
       <c r="E884" s="2"/>
       <c r="F884" s="3"/>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A885" s="1">
         <v>-3</v>
       </c>
@@ -11885,7 +11885,7 @@
       <c r="E885" s="2"/>
       <c r="F885" s="3"/>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A886" s="1">
         <v>-3</v>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="E886" s="2"/>
       <c r="F886" s="3"/>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A887" s="1">
         <v>-3</v>
       </c>
@@ -11911,7 +11911,7 @@
       <c r="E887" s="2"/>
       <c r="F887" s="3"/>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A888" s="1">
         <v>-3</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="E888" s="2"/>
       <c r="F888" s="3"/>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A889" s="1">
         <v>-3</v>
       </c>
@@ -11937,7 +11937,7 @@
       <c r="E889" s="2"/>
       <c r="F889" s="3"/>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A890" s="1">
         <v>-3</v>
       </c>
@@ -11950,7 +11950,7 @@
       <c r="E890" s="2"/>
       <c r="F890" s="3"/>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A891" s="1">
         <v>-3</v>
       </c>
@@ -11963,7 +11963,7 @@
       <c r="E891" s="2"/>
       <c r="F891" s="3"/>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A892" s="1">
         <v>-3</v>
       </c>
@@ -11976,7 +11976,7 @@
       <c r="E892" s="2"/>
       <c r="F892" s="3"/>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A893" s="1">
         <v>-3</v>
       </c>
@@ -11989,7 +11989,7 @@
       <c r="E893" s="2"/>
       <c r="F893" s="3"/>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A894" s="1">
         <v>-3</v>
       </c>
@@ -12002,7 +12002,7 @@
       <c r="E894" s="2"/>
       <c r="F894" s="3"/>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A895" s="1">
         <v>-3</v>
       </c>
@@ -12015,7 +12015,7 @@
       <c r="E895" s="2"/>
       <c r="F895" s="3"/>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A896" s="1">
         <v>-3</v>
       </c>
@@ -12028,7 +12028,7 @@
       <c r="E896" s="2"/>
       <c r="F896" s="3"/>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A897" s="1">
         <v>-3</v>
       </c>
@@ -12041,7 +12041,7 @@
       <c r="E897" s="2"/>
       <c r="F897" s="3"/>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A898" s="1">
         <v>-3</v>
       </c>
@@ -12054,7 +12054,7 @@
       <c r="E898" s="2"/>
       <c r="F898" s="3"/>
     </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A899" s="1">
         <v>-3</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="E899" s="2"/>
       <c r="F899" s="3"/>
     </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A900" s="1">
         <v>-3</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="E900" s="2"/>
       <c r="F900" s="3"/>
     </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A901" s="1">
         <v>-3</v>
       </c>
@@ -12093,7 +12093,7 @@
       <c r="E901" s="2"/>
       <c r="F901" s="3"/>
     </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A902" s="1">
         <v>-3</v>
       </c>
@@ -12106,7 +12106,7 @@
       <c r="E902" s="2"/>
       <c r="F902" s="3"/>
     </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A903" s="1">
         <v>-3</v>
       </c>
@@ -12119,7 +12119,7 @@
       <c r="E903" s="2"/>
       <c r="F903" s="3"/>
     </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A904" s="1">
         <v>-3</v>
       </c>
@@ -12132,7 +12132,7 @@
       <c r="E904" s="2"/>
       <c r="F904" s="3"/>
     </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A905" s="1">
         <v>-3</v>
       </c>
@@ -12145,7 +12145,7 @@
       <c r="E905" s="2"/>
       <c r="F905" s="3"/>
     </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A906" s="1">
         <v>-3</v>
       </c>
@@ -12158,7 +12158,7 @@
       <c r="E906" s="2"/>
       <c r="F906" s="3"/>
     </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A907" s="1">
         <v>-3</v>
       </c>
@@ -12171,7 +12171,7 @@
       <c r="E907" s="2"/>
       <c r="F907" s="3"/>
     </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A908" s="1">
         <v>-3</v>
       </c>
@@ -12184,7 +12184,7 @@
       <c r="E908" s="2"/>
       <c r="F908" s="3"/>
     </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A909" s="1">
         <v>-3</v>
       </c>
@@ -12197,7 +12197,7 @@
       <c r="E909" s="2"/>
       <c r="F909" s="3"/>
     </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A910" s="1">
         <v>-3</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="E910" s="2"/>
       <c r="F910" s="3"/>
     </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A911" s="1">
         <v>-3</v>
       </c>
@@ -12223,7 +12223,7 @@
       <c r="E911" s="2"/>
       <c r="F911" s="3"/>
     </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A912" s="1">
         <v>-3</v>
       </c>
@@ -12236,7 +12236,7 @@
       <c r="E912" s="2"/>
       <c r="F912" s="3"/>
     </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A913" s="1">
         <v>-3</v>
       </c>
@@ -12249,7 +12249,7 @@
       <c r="E913" s="2"/>
       <c r="F913" s="3"/>
     </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A914" s="1">
         <v>-3</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="E914" s="2"/>
       <c r="F914" s="3"/>
     </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A915" s="1">
         <v>-3</v>
       </c>
@@ -12275,7 +12275,7 @@
       <c r="E915" s="2"/>
       <c r="F915" s="3"/>
     </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A916" s="1">
         <v>-3</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="E916" s="2"/>
       <c r="F916" s="3"/>
     </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A917" s="1">
         <v>-3</v>
       </c>
@@ -12301,7 +12301,7 @@
       <c r="E917" s="2"/>
       <c r="F917" s="3"/>
     </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A918" s="1">
         <v>-3</v>
       </c>
@@ -12314,7 +12314,7 @@
       <c r="E918" s="2"/>
       <c r="F918" s="3"/>
     </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A919" s="1">
         <v>-3</v>
       </c>
@@ -12327,7 +12327,7 @@
       <c r="E919" s="2"/>
       <c r="F919" s="3"/>
     </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A920" s="1">
         <v>-3</v>
       </c>
@@ -12340,7 +12340,7 @@
       <c r="E920" s="2"/>
       <c r="F920" s="3"/>
     </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A921" s="1">
         <v>-3</v>
       </c>
@@ -12353,7 +12353,7 @@
       <c r="E921" s="2"/>
       <c r="F921" s="3"/>
     </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A922" s="1">
         <v>-3</v>
       </c>
@@ -12366,7 +12366,7 @@
       <c r="E922" s="2"/>
       <c r="F922" s="3"/>
     </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A923" s="1">
         <v>-3</v>
       </c>
@@ -12379,7 +12379,7 @@
       <c r="E923" s="2"/>
       <c r="F923" s="3"/>
     </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A924" s="1">
         <v>-3</v>
       </c>
@@ -12392,7 +12392,7 @@
       <c r="E924" s="2"/>
       <c r="F924" s="3"/>
     </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A925" s="1">
         <v>-3</v>
       </c>
@@ -12405,7 +12405,7 @@
       <c r="E925" s="2"/>
       <c r="F925" s="3"/>
     </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A926" s="1">
         <v>-3</v>
       </c>
@@ -12418,7 +12418,7 @@
       <c r="E926" s="2"/>
       <c r="F926" s="3"/>
     </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A927" s="1">
         <v>-3</v>
       </c>
@@ -12431,7 +12431,7 @@
       <c r="E927" s="2"/>
       <c r="F927" s="3"/>
     </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A928" s="1">
         <v>-3</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="E928" s="2"/>
       <c r="F928" s="3"/>
     </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A929" s="1">
         <v>-3</v>
       </c>
@@ -12457,7 +12457,7 @@
       <c r="E929" s="2"/>
       <c r="F929" s="3"/>
     </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A930" s="1">
         <v>-3</v>
       </c>
@@ -12470,7 +12470,7 @@
       <c r="E930" s="2"/>
       <c r="F930" s="3"/>
     </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A931" s="1">
         <v>-3</v>
       </c>
@@ -12483,7 +12483,7 @@
       <c r="E931" s="2"/>
       <c r="F931" s="3"/>
     </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A932" s="1">
         <v>-3</v>
       </c>
@@ -12496,7 +12496,7 @@
       <c r="E932" s="2"/>
       <c r="F932" s="3"/>
     </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A933" s="1">
         <v>-3</v>
       </c>
@@ -12509,7 +12509,7 @@
       <c r="E933" s="2"/>
       <c r="F933" s="3"/>
     </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A934" s="1">
         <v>-3</v>
       </c>
@@ -12522,7 +12522,7 @@
       <c r="E934" s="2"/>
       <c r="F934" s="3"/>
     </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A935" s="1">
         <v>-3</v>
       </c>
@@ -12535,7 +12535,7 @@
       <c r="E935" s="2"/>
       <c r="F935" s="3"/>
     </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A936" s="1">
         <v>-3</v>
       </c>
@@ -12548,7 +12548,7 @@
       <c r="E936" s="2"/>
       <c r="F936" s="3"/>
     </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A937" s="1">
         <v>-3</v>
       </c>
@@ -12561,7 +12561,7 @@
       <c r="E937" s="2"/>
       <c r="F937" s="3"/>
     </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A938" s="1">
         <v>-3</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="E938" s="2"/>
       <c r="F938" s="3"/>
     </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A939" s="1">
         <v>-3</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="E939" s="2"/>
       <c r="F939" s="3"/>
     </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A940" s="1">
         <v>-3</v>
       </c>
@@ -12600,7 +12600,7 @@
       <c r="E940" s="2"/>
       <c r="F940" s="3"/>
     </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A941" s="1">
         <v>-3</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="E941" s="2"/>
       <c r="F941" s="3"/>
     </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A942" s="1">
         <v>-3</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="E942" s="2"/>
       <c r="F942" s="3"/>
     </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A943" s="1">
         <v>-3</v>
       </c>
@@ -12639,7 +12639,7 @@
       <c r="E943" s="2"/>
       <c r="F943" s="3"/>
     </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A944" s="1">
         <v>-3</v>
       </c>
@@ -12652,7 +12652,7 @@
       <c r="E944" s="2"/>
       <c r="F944" s="3"/>
     </row>
-    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A945" s="1">
         <v>-3</v>
       </c>
@@ -12665,7 +12665,7 @@
       <c r="E945" s="2"/>
       <c r="F945" s="3"/>
     </row>
-    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A946" s="1">
         <v>-3</v>
       </c>
@@ -12678,7 +12678,7 @@
       <c r="E946" s="2"/>
       <c r="F946" s="3"/>
     </row>
-    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A947" s="1">
         <v>-3</v>
       </c>
@@ -12691,7 +12691,7 @@
       <c r="E947" s="2"/>
       <c r="F947" s="3"/>
     </row>
-    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A948" s="1">
         <v>-3</v>
       </c>
@@ -12704,7 +12704,7 @@
       <c r="E948" s="2"/>
       <c r="F948" s="3"/>
     </row>
-    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A949" s="1">
         <v>-3</v>
       </c>
@@ -12717,7 +12717,7 @@
       <c r="E949" s="2"/>
       <c r="F949" s="3"/>
     </row>
-    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A950" s="1">
         <v>-3</v>
       </c>
@@ -12730,7 +12730,7 @@
       <c r="E950" s="2"/>
       <c r="F950" s="3"/>
     </row>
-    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A951" s="1">
         <v>-3</v>
       </c>
@@ -12743,7 +12743,7 @@
       <c r="E951" s="2"/>
       <c r="F951" s="3"/>
     </row>
-    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A952" s="1">
         <v>-3</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="E952" s="2"/>
       <c r="F952" s="3"/>
     </row>
-    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A953" s="1">
         <v>-3</v>
       </c>
@@ -12769,7 +12769,7 @@
       <c r="E953" s="2"/>
       <c r="F953" s="3"/>
     </row>
-    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A954" s="1">
         <v>-3</v>
       </c>
@@ -12782,7 +12782,7 @@
       <c r="E954" s="2"/>
       <c r="F954" s="3"/>
     </row>
-    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A955" s="1">
         <v>-3</v>
       </c>
@@ -12795,7 +12795,7 @@
       <c r="E955" s="2"/>
       <c r="F955" s="3"/>
     </row>
-    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A956" s="1">
         <v>-3</v>
       </c>
@@ -12808,7 +12808,7 @@
       <c r="E956" s="2"/>
       <c r="F956" s="3"/>
     </row>
-    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A957" s="1">
         <v>-3</v>
       </c>
@@ -12821,7 +12821,7 @@
       <c r="E957" s="2"/>
       <c r="F957" s="3"/>
     </row>
-    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A958" s="1">
         <v>-3</v>
       </c>
@@ -12834,7 +12834,7 @@
       <c r="E958" s="2"/>
       <c r="F958" s="3"/>
     </row>
-    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A959" s="1">
         <v>-3</v>
       </c>
@@ -12847,7 +12847,7 @@
       <c r="E959" s="2"/>
       <c r="F959" s="3"/>
     </row>
-    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A960" s="1">
         <v>-3</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="E960" s="2"/>
       <c r="F960" s="3"/>
     </row>
-    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A961" s="1">
         <v>-3</v>
       </c>
@@ -12873,7 +12873,7 @@
       <c r="E961" s="2"/>
       <c r="F961" s="3"/>
     </row>
-    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A962" s="1">
         <v>-3</v>
       </c>
@@ -12886,7 +12886,7 @@
       <c r="E962" s="2"/>
       <c r="F962" s="3"/>
     </row>
-    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A963" s="1">
         <v>-3</v>
       </c>
@@ -12899,7 +12899,7 @@
       <c r="E963" s="2"/>
       <c r="F963" s="3"/>
     </row>
-    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A964" s="1">
         <v>-3</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="E964" s="2"/>
       <c r="F964" s="3"/>
     </row>
-    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A965" s="1">
         <v>-3</v>
       </c>
@@ -12925,7 +12925,7 @@
       <c r="E965" s="2"/>
       <c r="F965" s="3"/>
     </row>
-    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A966" s="1">
         <v>-3</v>
       </c>
@@ -12938,7 +12938,7 @@
       <c r="E966" s="2"/>
       <c r="F966" s="3"/>
     </row>
-    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A967" s="1">
         <v>-3</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="E967" s="2"/>
       <c r="F967" s="3"/>
     </row>
-    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A968" s="1">
         <v>-3</v>
       </c>
@@ -12964,7 +12964,7 @@
       <c r="E968" s="2"/>
       <c r="F968" s="3"/>
     </row>
-    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A969" s="1">
         <v>-3</v>
       </c>
@@ -12977,7 +12977,7 @@
       <c r="E969" s="2"/>
       <c r="F969" s="3"/>
     </row>
-    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A970" s="1">
         <v>-3</v>
       </c>
@@ -12990,7 +12990,7 @@
       <c r="E970" s="2"/>
       <c r="F970" s="3"/>
     </row>
-    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A971" s="1">
         <v>-3</v>
       </c>
@@ -13003,7 +13003,7 @@
       <c r="E971" s="2"/>
       <c r="F971" s="3"/>
     </row>
-    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A972" s="1">
         <v>-3</v>
       </c>
@@ -13016,7 +13016,7 @@
       <c r="E972" s="2"/>
       <c r="F972" s="3"/>
     </row>
-    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A973" s="1">
         <v>-3</v>
       </c>
@@ -13029,7 +13029,7 @@
       <c r="E973" s="2"/>
       <c r="F973" s="3"/>
     </row>
-    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A974" s="1">
         <v>-3</v>
       </c>
@@ -13042,7 +13042,7 @@
       <c r="E974" s="2"/>
       <c r="F974" s="3"/>
     </row>
-    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A975" s="1">
         <v>-3</v>
       </c>
@@ -13055,7 +13055,7 @@
       <c r="E975" s="2"/>
       <c r="F975" s="3"/>
     </row>
-    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A976" s="1">
         <v>-3</v>
       </c>
@@ -13068,7 +13068,7 @@
       <c r="E976" s="2"/>
       <c r="F976" s="3"/>
     </row>
-    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A977" s="1">
         <v>-3</v>
       </c>
@@ -13081,7 +13081,7 @@
       <c r="E977" s="2"/>
       <c r="F977" s="3"/>
     </row>
-    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A978" s="1">
         <v>-3</v>
       </c>
@@ -13094,7 +13094,7 @@
       <c r="E978" s="2"/>
       <c r="F978" s="3"/>
     </row>
-    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A979" s="1">
         <v>-3</v>
       </c>
@@ -13107,7 +13107,7 @@
       <c r="E979" s="2"/>
       <c r="F979" s="3"/>
     </row>
-    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A980" s="1">
         <v>-3</v>
       </c>
@@ -13120,7 +13120,7 @@
       <c r="E980" s="2"/>
       <c r="F980" s="3"/>
     </row>
-    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A981" s="1">
         <v>-3</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="E981" s="2"/>
       <c r="F981" s="3"/>
     </row>
-    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A982" s="1">
         <v>-3</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="E982" s="2"/>
       <c r="F982" s="3"/>
     </row>
-    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A983" s="1">
         <v>-3</v>
       </c>
@@ -13159,7 +13159,7 @@
       <c r="E983" s="2"/>
       <c r="F983" s="3"/>
     </row>
-    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A984" s="1">
         <v>-3</v>
       </c>
@@ -13172,7 +13172,7 @@
       <c r="E984" s="2"/>
       <c r="F984" s="3"/>
     </row>
-    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A985" s="1">
         <v>-3</v>
       </c>
@@ -13185,7 +13185,7 @@
       <c r="E985" s="2"/>
       <c r="F985" s="3"/>
     </row>
-    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A986" s="1">
         <v>-3</v>
       </c>
@@ -13198,7 +13198,7 @@
       <c r="E986" s="2"/>
       <c r="F986" s="3"/>
     </row>
-    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A987" s="1">
         <v>-3</v>
       </c>
@@ -13211,7 +13211,7 @@
       <c r="E987" s="2"/>
       <c r="F987" s="3"/>
     </row>
-    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A988" s="1">
         <v>-3</v>
       </c>
@@ -13224,7 +13224,7 @@
       <c r="E988" s="2"/>
       <c r="F988" s="3"/>
     </row>
-    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A989" s="1">
         <v>-3</v>
       </c>
@@ -13237,7 +13237,7 @@
       <c r="E989" s="2"/>
       <c r="F989" s="3"/>
     </row>
-    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A990" s="1">
         <v>-3</v>
       </c>
@@ -13250,7 +13250,7 @@
       <c r="E990" s="2"/>
       <c r="F990" s="3"/>
     </row>
-    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A991" s="1">
         <v>-3</v>
       </c>
@@ -13263,7 +13263,7 @@
       <c r="E991" s="2"/>
       <c r="F991" s="3"/>
     </row>
-    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A992" s="1">
         <v>-3</v>
       </c>
@@ -13276,7 +13276,7 @@
       <c r="E992" s="2"/>
       <c r="F992" s="3"/>
     </row>
-    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A993" s="1">
         <v>-3</v>
       </c>
@@ -13289,7 +13289,7 @@
       <c r="E993" s="2"/>
       <c r="F993" s="3"/>
     </row>
-    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A994" s="1">
         <v>-3</v>
       </c>
@@ -13302,7 +13302,7 @@
       <c r="E994" s="2"/>
       <c r="F994" s="3"/>
     </row>
-    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A995" s="1">
         <v>-3</v>
       </c>
@@ -13315,7 +13315,7 @@
       <c r="E995" s="2"/>
       <c r="F995" s="3"/>
     </row>
-    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A996" s="1">
         <v>-3</v>
       </c>
@@ -13328,7 +13328,7 @@
       <c r="E996" s="2"/>
       <c r="F996" s="3"/>
     </row>
-    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A997" s="1">
         <v>-3</v>
       </c>
@@ -13341,7 +13341,7 @@
       <c r="E997" s="2"/>
       <c r="F997" s="3"/>
     </row>
-    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A998" s="1">
         <v>-3</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="E998" s="2"/>
       <c r="F998" s="3"/>
     </row>
-    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A999" s="1">
         <v>-3</v>
       </c>
@@ -13367,7 +13367,7 @@
       <c r="E999" s="2"/>
       <c r="F999" s="3"/>
     </row>
-    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1000" s="1">
         <v>-3</v>
       </c>
@@ -13380,724 +13380,724 @@
       <c r="E1000" s="2"/>
       <c r="F1000" s="3"/>
     </row>
-    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1001" s="3"/>
     </row>
-    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1002" s="3"/>
     </row>
-    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1003" s="3"/>
     </row>
-    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1004" s="3"/>
     </row>
-    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1005" s="3"/>
     </row>
-    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1006" s="3"/>
     </row>
-    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1007" s="3"/>
     </row>
-    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1008" s="3"/>
     </row>
-    <row r="1009" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1009" s="3"/>
     </row>
-    <row r="1010" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1010" s="3"/>
     </row>
-    <row r="1011" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1011" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1011" s="3"/>
     </row>
-    <row r="1012" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1012" s="3"/>
     </row>
-    <row r="1013" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1013" s="3"/>
     </row>
-    <row r="1014" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1014" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1014" s="3"/>
     </row>
-    <row r="1015" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1015" s="3"/>
     </row>
-    <row r="1016" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1016" s="3"/>
     </row>
-    <row r="1017" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1017" s="3"/>
     </row>
-    <row r="1018" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1018" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1018" s="3"/>
     </row>
-    <row r="1019" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1019" s="3"/>
     </row>
-    <row r="1020" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1020" s="3"/>
     </row>
-    <row r="1021" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1021" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1021" s="3"/>
     </row>
-    <row r="1022" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1022" s="3"/>
     </row>
-    <row r="1023" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1023" s="3"/>
     </row>
-    <row r="1024" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1024" s="3"/>
     </row>
-    <row r="1025" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1025" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1025" s="3"/>
     </row>
-    <row r="1026" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1026" s="3"/>
     </row>
-    <row r="1027" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1027" s="3"/>
     </row>
-    <row r="1028" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1028" s="3"/>
     </row>
-    <row r="1029" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1029" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1029" s="3"/>
     </row>
-    <row r="1030" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1030" s="3"/>
     </row>
-    <row r="1031" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1031" s="3"/>
     </row>
-    <row r="1032" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1032" s="3"/>
     </row>
-    <row r="1033" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1033" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1033" s="3"/>
     </row>
-    <row r="1034" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1034" s="3"/>
     </row>
-    <row r="1035" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1035" s="3"/>
     </row>
-    <row r="1036" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1036" s="3"/>
     </row>
-    <row r="1037" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1037" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1037" s="3"/>
     </row>
-    <row r="1038" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1038" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1038" s="3"/>
     </row>
-    <row r="1039" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1039" s="3"/>
     </row>
-    <row r="1040" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1040" s="3"/>
     </row>
-    <row r="1041" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1041" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1041" s="3"/>
     </row>
-    <row r="1042" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1042" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1042" s="3"/>
     </row>
-    <row r="1043" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1043" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1043" s="3"/>
     </row>
-    <row r="1044" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1044" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1044" s="3"/>
     </row>
-    <row r="1045" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1045" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1045" s="3"/>
     </row>
-    <row r="1046" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1046" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1046" s="3"/>
     </row>
-    <row r="1047" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1047" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1047" s="3"/>
     </row>
-    <row r="1048" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1048" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1048" s="3"/>
     </row>
-    <row r="1049" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1049" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1049" s="3"/>
     </row>
-    <row r="1050" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1050" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1050" s="3"/>
     </row>
-    <row r="1051" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1051" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1051" s="3"/>
     </row>
-    <row r="1052" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1052" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1052" s="3"/>
     </row>
-    <row r="1053" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1053" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1053" s="3"/>
     </row>
-    <row r="1054" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1054" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1054" s="3"/>
     </row>
-    <row r="1055" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1055" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1055" s="3"/>
     </row>
-    <row r="1056" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1056" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1056" s="3"/>
     </row>
-    <row r="1057" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1057" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1057" s="3"/>
     </row>
-    <row r="1058" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1058" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1058" s="3"/>
     </row>
-    <row r="1059" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1059" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1059" s="3"/>
     </row>
-    <row r="1060" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1060" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1060" s="3"/>
     </row>
-    <row r="1061" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1061" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1061" s="3"/>
     </row>
-    <row r="1062" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1062" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1062" s="3"/>
     </row>
-    <row r="1063" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1063" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1063" s="3"/>
     </row>
-    <row r="1064" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1064" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1064" s="3"/>
     </row>
-    <row r="1065" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1065" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1065" s="3"/>
     </row>
-    <row r="1066" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1066" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1066" s="3"/>
     </row>
-    <row r="1067" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1067" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1067" s="3"/>
     </row>
-    <row r="1068" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1068" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1068" s="3"/>
     </row>
-    <row r="1069" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1069" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1069" s="3"/>
     </row>
-    <row r="1070" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1070" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1070" s="3"/>
     </row>
-    <row r="1071" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1071" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1071" s="3"/>
     </row>
-    <row r="1072" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1072" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1072" s="3"/>
     </row>
-    <row r="1073" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1073" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1073" s="3"/>
     </row>
-    <row r="1074" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1074" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1074" s="3"/>
     </row>
-    <row r="1075" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1075" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1075" s="3"/>
     </row>
-    <row r="1076" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1076" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1076" s="3"/>
     </row>
-    <row r="1077" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1077" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1077" s="3"/>
     </row>
-    <row r="1078" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1078" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1078" s="3"/>
     </row>
-    <row r="1079" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1079" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1079" s="3"/>
     </row>
-    <row r="1080" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1080" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1080" s="3"/>
     </row>
-    <row r="1081" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1081" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1081" s="3"/>
     </row>
-    <row r="1082" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1082" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1082" s="3"/>
     </row>
-    <row r="1083" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1083" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1083" s="3"/>
     </row>
-    <row r="1084" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1084" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1084" s="3"/>
     </row>
-    <row r="1085" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1085" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1085" s="3"/>
     </row>
-    <row r="1086" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1086" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1086" s="3"/>
     </row>
-    <row r="1087" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1087" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1087" s="3"/>
     </row>
-    <row r="1088" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1088" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1088" s="3"/>
     </row>
-    <row r="1089" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1089" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1089" s="3"/>
     </row>
-    <row r="1090" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1090" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1090" s="3"/>
     </row>
-    <row r="1091" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1091" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1091" s="3"/>
     </row>
-    <row r="1092" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1092" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1092" s="3"/>
     </row>
-    <row r="1093" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1093" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1093" s="3"/>
     </row>
-    <row r="1094" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1094" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1094" s="3"/>
     </row>
-    <row r="1095" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1095" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1095" s="3"/>
     </row>
-    <row r="1096" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1096" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1096" s="3"/>
     </row>
-    <row r="1097" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1097" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1097" s="3"/>
     </row>
-    <row r="1098" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1098" s="3"/>
     </row>
-    <row r="1099" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1099" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1099" s="3"/>
     </row>
-    <row r="1100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1100" s="3"/>
     </row>
-    <row r="1101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1101" s="3"/>
     </row>
-    <row r="1102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1102" s="3"/>
     </row>
-    <row r="1103" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1103" s="3"/>
     </row>
-    <row r="1104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1104" s="3"/>
     </row>
-    <row r="1105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1105" s="3"/>
     </row>
-    <row r="1106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1106" s="3"/>
     </row>
-    <row r="1107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1107" s="3"/>
     </row>
-    <row r="1108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1108" s="3"/>
     </row>
-    <row r="1109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1109" s="3"/>
     </row>
-    <row r="1110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1110" s="3"/>
     </row>
-    <row r="1111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1111" s="3"/>
     </row>
-    <row r="1112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1112" s="3"/>
     </row>
-    <row r="1113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1113" s="3"/>
     </row>
-    <row r="1114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1114" s="3"/>
     </row>
-    <row r="1115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1115" s="3"/>
     </row>
-    <row r="1116" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1116" s="3"/>
     </row>
-    <row r="1117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1117" s="3"/>
     </row>
-    <row r="1118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1118" s="3"/>
     </row>
-    <row r="1119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1119" s="3"/>
     </row>
-    <row r="1120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1120" s="3"/>
     </row>
-    <row r="1121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1121" s="3"/>
     </row>
-    <row r="1122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1122" s="3"/>
     </row>
-    <row r="1123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1123" s="3"/>
     </row>
-    <row r="1124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1124" s="3"/>
     </row>
-    <row r="1125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1125" s="3"/>
     </row>
-    <row r="1126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1126" s="3"/>
     </row>
-    <row r="1127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1127" s="3"/>
     </row>
-    <row r="1128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1128" s="3"/>
     </row>
-    <row r="1129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1129" s="3"/>
     </row>
-    <row r="1130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1130" s="3"/>
     </row>
-    <row r="1131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1131" s="3"/>
     </row>
-    <row r="1132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1132" s="3"/>
     </row>
-    <row r="1133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1133" s="3"/>
     </row>
-    <row r="1134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1134" s="3"/>
     </row>
-    <row r="1135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1135" s="3"/>
     </row>
-    <row r="1136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1136" s="3"/>
     </row>
-    <row r="1137" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1137" s="3"/>
     </row>
-    <row r="1138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1138" s="3"/>
     </row>
-    <row r="1139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1139" s="3"/>
     </row>
-    <row r="1140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1140" s="3"/>
     </row>
-    <row r="1141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1141" s="3"/>
     </row>
-    <row r="1142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1142" s="3"/>
     </row>
-    <row r="1143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1143" s="3"/>
     </row>
-    <row r="1144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1144" s="3"/>
     </row>
-    <row r="1145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1145" s="3"/>
     </row>
-    <row r="1146" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1146" s="3"/>
     </row>
-    <row r="1147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1147" s="3"/>
     </row>
-    <row r="1148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1148" s="3"/>
     </row>
-    <row r="1149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1149" s="3"/>
     </row>
-    <row r="1150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1150" s="3"/>
     </row>
-    <row r="1151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1151" s="3"/>
     </row>
-    <row r="1152" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1152" s="3"/>
     </row>
-    <row r="1153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1153" s="3"/>
     </row>
-    <row r="1154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1154" s="3"/>
     </row>
-    <row r="1155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1155" s="3"/>
     </row>
-    <row r="1156" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1156" s="3"/>
     </row>
-    <row r="1157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1157" s="3"/>
     </row>
-    <row r="1158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1158" s="3"/>
     </row>
-    <row r="1159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1159" s="3"/>
     </row>
-    <row r="1160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1160" s="3"/>
     </row>
-    <row r="1161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1161" s="3"/>
     </row>
-    <row r="1162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1162" s="3"/>
     </row>
-    <row r="1163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1163" s="3"/>
     </row>
-    <row r="1164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1164" s="3"/>
     </row>
-    <row r="1165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1165" s="3"/>
     </row>
-    <row r="1166" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1166" s="3"/>
     </row>
-    <row r="1167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1167" s="3"/>
     </row>
-    <row r="1168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1168" s="3"/>
     </row>
-    <row r="1169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1169" s="3"/>
     </row>
-    <row r="1170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1170" s="3"/>
     </row>
-    <row r="1171" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1171" s="3"/>
     </row>
-    <row r="1172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1172" s="3"/>
     </row>
-    <row r="1173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1173" s="3"/>
     </row>
-    <row r="1174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1174" s="3"/>
     </row>
-    <row r="1175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1175" s="3"/>
     </row>
-    <row r="1176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1176" s="3"/>
     </row>
-    <row r="1177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1177" s="3"/>
     </row>
-    <row r="1178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1178" s="3"/>
     </row>
-    <row r="1179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1179" s="3"/>
     </row>
-    <row r="1180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1180" s="3"/>
     </row>
-    <row r="1181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1181" s="3"/>
     </row>
-    <row r="1182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1182" s="3"/>
     </row>
-    <row r="1183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1183" s="3"/>
     </row>
-    <row r="1184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1184" s="3"/>
     </row>
-    <row r="1185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1185" s="3"/>
     </row>
-    <row r="1186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1186" s="3"/>
     </row>
-    <row r="1187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1187" s="3"/>
     </row>
-    <row r="1188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1188" s="3"/>
     </row>
-    <row r="1189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1189" s="3"/>
     </row>
-    <row r="1190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1190" s="3"/>
     </row>
-    <row r="1191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1191" s="3"/>
     </row>
-    <row r="1192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1192" s="3"/>
     </row>
-    <row r="1193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1193" s="3"/>
     </row>
-    <row r="1194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1194" s="3"/>
     </row>
-    <row r="1195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1195" s="3"/>
     </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1196" s="3"/>
     </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1197" s="3"/>
     </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1198" s="3"/>
     </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1199" s="3"/>
     </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1200" s="3"/>
     </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1201" s="3"/>
     </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1202" s="3"/>
     </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1203" s="3"/>
     </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1204" s="3"/>
     </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1205" s="3"/>
     </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1206" s="3"/>
     </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1207" s="3"/>
     </row>
-    <row r="1208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1208" s="3"/>
     </row>
-    <row r="1209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1209" s="3"/>
     </row>
-    <row r="1210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1210" s="3"/>
     </row>
-    <row r="1211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1211" s="3"/>
     </row>
-    <row r="1212" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1212" s="3"/>
     </row>
-    <row r="1213" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1213" s="3"/>
     </row>
-    <row r="1214" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1214" s="3"/>
     </row>
-    <row r="1215" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1215" s="3"/>
     </row>
-    <row r="1216" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1216" s="3"/>
     </row>
-    <row r="1217" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1217" s="3"/>
     </row>
-    <row r="1218" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1218" s="3"/>
     </row>
-    <row r="1219" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1219" s="3"/>
     </row>
-    <row r="1220" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1220" s="3"/>
     </row>
-    <row r="1221" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1221" s="3"/>
     </row>
-    <row r="1222" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1222" s="3"/>
     </row>
-    <row r="1223" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1223" s="3"/>
     </row>
-    <row r="1224" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1224" s="3"/>
     </row>
-    <row r="1225" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1225" s="3"/>
     </row>
-    <row r="1226" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1226" s="3"/>
     </row>
-    <row r="1227" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1227" s="3"/>
     </row>
-    <row r="1228" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1228" s="3"/>
     </row>
-    <row r="1229" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1229" s="3"/>
     </row>
-    <row r="1230" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1230" s="3"/>
     </row>
-    <row r="1231" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1231" s="3"/>
     </row>
-    <row r="1232" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1232" s="3"/>
     </row>
-    <row r="1233" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1233" s="3"/>
     </row>
-    <row r="1234" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1234" s="3"/>
     </row>
-    <row r="1235" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1235" s="3"/>
     </row>
-    <row r="1236" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1236" s="3"/>
     </row>
-    <row r="1237" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1237" s="3"/>
     </row>
-    <row r="1238" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1238" s="3"/>
     </row>
-    <row r="1239" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1239" s="3"/>
     </row>
-    <row r="1240" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1240" s="3"/>
     </row>
   </sheetData>
